--- a/gantt-chart/SWYL-Gantt-Chart.xlsx
+++ b/gantt-chart/SWYL-Gantt-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logann131/coding/web-dev/SWYL/documentation/gantt-chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE6D3C7-03EA-C848-9BC1-14EF5D3FF9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBAF59B-2E65-9243-8ABA-2B3191AF98F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1687,12 +1687,6 @@
     <xf numFmtId="164" fontId="28" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1707,6 +1701,12 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2266,9 +2266,9 @@
   </sheetPr>
   <dimension ref="A1:DH122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="120" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK18" sqref="AK18"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF24" sqref="AF24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2292,27 +2292,27 @@
       <c r="E1" s="44"/>
       <c r="G1" s="1"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="154" t="str">
+      <c r="I1" s="159" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","")</f>
         <v/>
       </c>
-      <c r="J1" s="155"/>
-      <c r="K1" s="155"/>
-      <c r="L1" s="155"/>
-      <c r="M1" s="155"/>
-      <c r="N1" s="155"/>
-      <c r="O1" s="155"/>
-      <c r="P1" s="155"/>
-      <c r="Q1" s="155"/>
-      <c r="R1" s="155"/>
-      <c r="S1" s="155"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="155"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="160"/>
+      <c r="U1" s="160"/>
+      <c r="V1" s="160"/>
+      <c r="W1" s="160"/>
+      <c r="X1" s="160"/>
+      <c r="Y1" s="160"/>
+      <c r="Z1" s="160"/>
     </row>
     <row r="2" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -2321,21 +2321,21 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="159">
+      <c r="D2" s="157">
         <v>44795</v>
       </c>
-      <c r="E2" s="160"/>
+      <c r="E2" s="158"/>
     </row>
     <row r="3" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="159">
+      <c r="D3" s="157">
         <f ca="1">TODAY()</f>
         <v>44827</v>
       </c>
-      <c r="E3" s="160"/>
+      <c r="E3" s="158"/>
     </row>
     <row r="4" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
@@ -2344,156 +2344,156 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="156">
+      <c r="H4" s="154">
         <f>H5</f>
         <v>44795</v>
       </c>
-      <c r="I4" s="157"/>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="156">
+      <c r="I4" s="155"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="156"/>
+      <c r="O4" s="154">
         <f>O5</f>
         <v>44802</v>
       </c>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157"/>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157"/>
-      <c r="T4" s="157"/>
-      <c r="U4" s="158"/>
-      <c r="V4" s="156">
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="155"/>
+      <c r="T4" s="155"/>
+      <c r="U4" s="156"/>
+      <c r="V4" s="154">
         <f>V5</f>
         <v>44809</v>
       </c>
-      <c r="W4" s="157"/>
-      <c r="X4" s="157"/>
-      <c r="Y4" s="157"/>
-      <c r="Z4" s="157"/>
-      <c r="AA4" s="157"/>
-      <c r="AB4" s="158"/>
-      <c r="AC4" s="156">
+      <c r="W4" s="155"/>
+      <c r="X4" s="155"/>
+      <c r="Y4" s="155"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="156"/>
+      <c r="AC4" s="154">
         <f>AC5</f>
         <v>44816</v>
       </c>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="157"/>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="157"/>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="156">
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="155"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="154">
         <f>AJ5</f>
         <v>44823</v>
       </c>
-      <c r="AK4" s="157"/>
-      <c r="AL4" s="157"/>
-      <c r="AM4" s="157"/>
-      <c r="AN4" s="157"/>
-      <c r="AO4" s="157"/>
-      <c r="AP4" s="158"/>
-      <c r="AQ4" s="156">
+      <c r="AK4" s="155"/>
+      <c r="AL4" s="155"/>
+      <c r="AM4" s="155"/>
+      <c r="AN4" s="155"/>
+      <c r="AO4" s="155"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="154">
         <f>AQ5</f>
         <v>44830</v>
       </c>
-      <c r="AR4" s="157"/>
-      <c r="AS4" s="157"/>
-      <c r="AT4" s="157"/>
-      <c r="AU4" s="157"/>
-      <c r="AV4" s="157"/>
-      <c r="AW4" s="158"/>
-      <c r="AX4" s="156">
+      <c r="AR4" s="155"/>
+      <c r="AS4" s="155"/>
+      <c r="AT4" s="155"/>
+      <c r="AU4" s="155"/>
+      <c r="AV4" s="155"/>
+      <c r="AW4" s="156"/>
+      <c r="AX4" s="154">
         <f>AX5</f>
         <v>44837</v>
       </c>
-      <c r="AY4" s="157"/>
-      <c r="AZ4" s="157"/>
-      <c r="BA4" s="157"/>
-      <c r="BB4" s="157"/>
-      <c r="BC4" s="157"/>
-      <c r="BD4" s="158"/>
-      <c r="BE4" s="156">
+      <c r="AY4" s="155"/>
+      <c r="AZ4" s="155"/>
+      <c r="BA4" s="155"/>
+      <c r="BB4" s="155"/>
+      <c r="BC4" s="155"/>
+      <c r="BD4" s="156"/>
+      <c r="BE4" s="154">
         <f>BE5</f>
         <v>44844</v>
       </c>
-      <c r="BF4" s="157"/>
-      <c r="BG4" s="157"/>
-      <c r="BH4" s="157"/>
-      <c r="BI4" s="157"/>
-      <c r="BJ4" s="157"/>
-      <c r="BK4" s="158"/>
-      <c r="BL4" s="156">
+      <c r="BF4" s="155"/>
+      <c r="BG4" s="155"/>
+      <c r="BH4" s="155"/>
+      <c r="BI4" s="155"/>
+      <c r="BJ4" s="155"/>
+      <c r="BK4" s="156"/>
+      <c r="BL4" s="154">
         <f>BL5</f>
         <v>44851</v>
       </c>
-      <c r="BM4" s="157"/>
-      <c r="BN4" s="157"/>
-      <c r="BO4" s="157"/>
-      <c r="BP4" s="157"/>
-      <c r="BQ4" s="157"/>
-      <c r="BR4" s="158"/>
-      <c r="BS4" s="156">
+      <c r="BM4" s="155"/>
+      <c r="BN4" s="155"/>
+      <c r="BO4" s="155"/>
+      <c r="BP4" s="155"/>
+      <c r="BQ4" s="155"/>
+      <c r="BR4" s="156"/>
+      <c r="BS4" s="154">
         <f>BS5</f>
         <v>44858</v>
       </c>
-      <c r="BT4" s="157"/>
-      <c r="BU4" s="157"/>
-      <c r="BV4" s="157"/>
-      <c r="BW4" s="157"/>
-      <c r="BX4" s="157"/>
-      <c r="BY4" s="158"/>
-      <c r="BZ4" s="156">
+      <c r="BT4" s="155"/>
+      <c r="BU4" s="155"/>
+      <c r="BV4" s="155"/>
+      <c r="BW4" s="155"/>
+      <c r="BX4" s="155"/>
+      <c r="BY4" s="156"/>
+      <c r="BZ4" s="154">
         <f>BZ5</f>
         <v>44865</v>
       </c>
-      <c r="CA4" s="157"/>
-      <c r="CB4" s="157"/>
-      <c r="CC4" s="157"/>
-      <c r="CD4" s="157"/>
-      <c r="CE4" s="157"/>
-      <c r="CF4" s="158"/>
-      <c r="CG4" s="156">
+      <c r="CA4" s="155"/>
+      <c r="CB4" s="155"/>
+      <c r="CC4" s="155"/>
+      <c r="CD4" s="155"/>
+      <c r="CE4" s="155"/>
+      <c r="CF4" s="156"/>
+      <c r="CG4" s="154">
         <f>CG5</f>
         <v>44872</v>
       </c>
-      <c r="CH4" s="157"/>
-      <c r="CI4" s="157"/>
-      <c r="CJ4" s="157"/>
-      <c r="CK4" s="157"/>
-      <c r="CL4" s="157"/>
-      <c r="CM4" s="158"/>
-      <c r="CN4" s="156">
+      <c r="CH4" s="155"/>
+      <c r="CI4" s="155"/>
+      <c r="CJ4" s="155"/>
+      <c r="CK4" s="155"/>
+      <c r="CL4" s="155"/>
+      <c r="CM4" s="156"/>
+      <c r="CN4" s="154">
         <f>CN5</f>
         <v>44879</v>
       </c>
-      <c r="CO4" s="157"/>
-      <c r="CP4" s="157"/>
-      <c r="CQ4" s="157"/>
-      <c r="CR4" s="157"/>
-      <c r="CS4" s="157"/>
-      <c r="CT4" s="158"/>
-      <c r="CU4" s="156">
+      <c r="CO4" s="155"/>
+      <c r="CP4" s="155"/>
+      <c r="CQ4" s="155"/>
+      <c r="CR4" s="155"/>
+      <c r="CS4" s="155"/>
+      <c r="CT4" s="156"/>
+      <c r="CU4" s="154">
         <f>CU5</f>
         <v>44886</v>
       </c>
-      <c r="CV4" s="157"/>
-      <c r="CW4" s="157"/>
-      <c r="CX4" s="157"/>
-      <c r="CY4" s="157"/>
-      <c r="CZ4" s="157"/>
-      <c r="DA4" s="158"/>
-      <c r="DB4" s="156">
+      <c r="CV4" s="155"/>
+      <c r="CW4" s="155"/>
+      <c r="CX4" s="155"/>
+      <c r="CY4" s="155"/>
+      <c r="CZ4" s="155"/>
+      <c r="DA4" s="156"/>
+      <c r="DB4" s="154">
         <f>DB5</f>
         <v>44893</v>
       </c>
-      <c r="DC4" s="157"/>
-      <c r="DD4" s="157"/>
-      <c r="DE4" s="157"/>
-      <c r="DF4" s="157"/>
-      <c r="DG4" s="157"/>
-      <c r="DH4" s="158"/>
+      <c r="DC4" s="155"/>
+      <c r="DD4" s="155"/>
+      <c r="DE4" s="155"/>
+      <c r="DF4" s="155"/>
+      <c r="DG4" s="155"/>
+      <c r="DH4" s="156"/>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -5076,7 +5076,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="51">
         <v>44827</v>
@@ -17071,6 +17071,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
     <mergeCell ref="BL4:BR4"/>
@@ -17078,17 +17089,6 @@
     <mergeCell ref="BZ4:CF4"/>
     <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="CN4:CT4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C118">
     <cfRule type="dataBar" priority="33">

--- a/gantt-chart/SWYL-Gantt-Chart.xlsx
+++ b/gantt-chart/SWYL-Gantt-Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/logann131/coding/web-dev/SWYL/documentation/gantt-chart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB88CD0-0825-164A-BF3D-064A054FD4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A094491-DEA0-4047-9892-465B2A3E363D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1841,6 +1841,351 @@
     <xf numFmtId="164" fontId="28" fillId="23" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="25" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="27" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="28" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="30" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="26" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="31" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="31" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="33" fillId="32" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="32" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="33" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="35" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="37" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="40" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="41" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="42" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="43" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="45" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="47" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="36" fillId="48" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1854,351 +2199,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="24" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="25" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="12" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="27" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="28" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="29" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="30" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="30" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="26" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="31" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="31" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="33" fillId="32" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="32" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="33" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="35" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="36" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="37" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="38" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="37" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="39" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="40" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="41" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="42" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="43" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="42" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="44" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="46" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="14" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="45" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="47" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="36" fillId="48" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="49" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2821,8 +2821,8 @@
   <dimension ref="A1:DH146"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="110" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M50" sqref="M50"/>
+      <pane ySplit="6" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC33" sqref="BC33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2846,27 +2846,27 @@
       <c r="E1" s="39"/>
       <c r="G1" s="1"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="129" t="str">
+      <c r="I1" s="237" t="str">
         <f>HYPERLINK("https://vertex42.link/HowToMakeAGanttChart","")</f>
         <v/>
       </c>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="130"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
+      <c r="N1" s="238"/>
+      <c r="O1" s="238"/>
+      <c r="P1" s="238"/>
+      <c r="Q1" s="238"/>
+      <c r="R1" s="238"/>
+      <c r="S1" s="238"/>
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="238"/>
     </row>
     <row r="2" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
@@ -2875,21 +2875,21 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2" s="242">
         <v>44795</v>
       </c>
-      <c r="E2" s="128"/>
+      <c r="E2" s="243"/>
     </row>
     <row r="3" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D3" s="242">
         <f ca="1">TODAY()</f>
         <v>44831</v>
       </c>
-      <c r="E3" s="128"/>
+      <c r="E3" s="243"/>
     </row>
     <row r="4" spans="1:112" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="5" t="s">
@@ -2898,156 +2898,156 @@
       <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="124">
+      <c r="H4" s="239">
         <f>H5</f>
         <v>44795</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="125"/>
-      <c r="M4" s="125"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="124">
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="240"/>
+      <c r="N4" s="241"/>
+      <c r="O4" s="239">
         <f>O5</f>
         <v>44802</v>
       </c>
-      <c r="P4" s="125"/>
-      <c r="Q4" s="125"/>
-      <c r="R4" s="125"/>
-      <c r="S4" s="125"/>
-      <c r="T4" s="125"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="124">
+      <c r="P4" s="240"/>
+      <c r="Q4" s="240"/>
+      <c r="R4" s="240"/>
+      <c r="S4" s="240"/>
+      <c r="T4" s="240"/>
+      <c r="U4" s="241"/>
+      <c r="V4" s="239">
         <f>V5</f>
         <v>44809</v>
       </c>
-      <c r="W4" s="125"/>
-      <c r="X4" s="125"/>
-      <c r="Y4" s="125"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="125"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="124">
+      <c r="W4" s="240"/>
+      <c r="X4" s="240"/>
+      <c r="Y4" s="240"/>
+      <c r="Z4" s="240"/>
+      <c r="AA4" s="240"/>
+      <c r="AB4" s="241"/>
+      <c r="AC4" s="239">
         <f>AC5</f>
         <v>44816</v>
       </c>
-      <c r="AD4" s="125"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-      <c r="AH4" s="125"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="124">
+      <c r="AD4" s="240"/>
+      <c r="AE4" s="240"/>
+      <c r="AF4" s="240"/>
+      <c r="AG4" s="240"/>
+      <c r="AH4" s="240"/>
+      <c r="AI4" s="241"/>
+      <c r="AJ4" s="239">
         <f>AJ5</f>
         <v>44823</v>
       </c>
-      <c r="AK4" s="125"/>
-      <c r="AL4" s="125"/>
-      <c r="AM4" s="125"/>
-      <c r="AN4" s="125"/>
-      <c r="AO4" s="125"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="124">
+      <c r="AK4" s="240"/>
+      <c r="AL4" s="240"/>
+      <c r="AM4" s="240"/>
+      <c r="AN4" s="240"/>
+      <c r="AO4" s="240"/>
+      <c r="AP4" s="241"/>
+      <c r="AQ4" s="239">
         <f>AQ5</f>
         <v>44830</v>
       </c>
-      <c r="AR4" s="125"/>
-      <c r="AS4" s="125"/>
-      <c r="AT4" s="125"/>
-      <c r="AU4" s="125"/>
-      <c r="AV4" s="125"/>
-      <c r="AW4" s="126"/>
-      <c r="AX4" s="124">
+      <c r="AR4" s="240"/>
+      <c r="AS4" s="240"/>
+      <c r="AT4" s="240"/>
+      <c r="AU4" s="240"/>
+      <c r="AV4" s="240"/>
+      <c r="AW4" s="241"/>
+      <c r="AX4" s="239">
         <f>AX5</f>
         <v>44837</v>
       </c>
-      <c r="AY4" s="125"/>
-      <c r="AZ4" s="125"/>
-      <c r="BA4" s="125"/>
-      <c r="BB4" s="125"/>
-      <c r="BC4" s="125"/>
-      <c r="BD4" s="126"/>
-      <c r="BE4" s="124">
+      <c r="AY4" s="240"/>
+      <c r="AZ4" s="240"/>
+      <c r="BA4" s="240"/>
+      <c r="BB4" s="240"/>
+      <c r="BC4" s="240"/>
+      <c r="BD4" s="241"/>
+      <c r="BE4" s="239">
         <f>BE5</f>
         <v>44844</v>
       </c>
-      <c r="BF4" s="125"/>
-      <c r="BG4" s="125"/>
-      <c r="BH4" s="125"/>
-      <c r="BI4" s="125"/>
-      <c r="BJ4" s="125"/>
-      <c r="BK4" s="126"/>
-      <c r="BL4" s="124">
+      <c r="BF4" s="240"/>
+      <c r="BG4" s="240"/>
+      <c r="BH4" s="240"/>
+      <c r="BI4" s="240"/>
+      <c r="BJ4" s="240"/>
+      <c r="BK4" s="241"/>
+      <c r="BL4" s="239">
         <f>BL5</f>
         <v>44851</v>
       </c>
-      <c r="BM4" s="125"/>
-      <c r="BN4" s="125"/>
-      <c r="BO4" s="125"/>
-      <c r="BP4" s="125"/>
-      <c r="BQ4" s="125"/>
-      <c r="BR4" s="126"/>
-      <c r="BS4" s="124">
+      <c r="BM4" s="240"/>
+      <c r="BN4" s="240"/>
+      <c r="BO4" s="240"/>
+      <c r="BP4" s="240"/>
+      <c r="BQ4" s="240"/>
+      <c r="BR4" s="241"/>
+      <c r="BS4" s="239">
         <f>BS5</f>
         <v>44858</v>
       </c>
-      <c r="BT4" s="125"/>
-      <c r="BU4" s="125"/>
-      <c r="BV4" s="125"/>
-      <c r="BW4" s="125"/>
-      <c r="BX4" s="125"/>
-      <c r="BY4" s="126"/>
-      <c r="BZ4" s="124">
+      <c r="BT4" s="240"/>
+      <c r="BU4" s="240"/>
+      <c r="BV4" s="240"/>
+      <c r="BW4" s="240"/>
+      <c r="BX4" s="240"/>
+      <c r="BY4" s="241"/>
+      <c r="BZ4" s="239">
         <f>BZ5</f>
         <v>44865</v>
       </c>
-      <c r="CA4" s="125"/>
-      <c r="CB4" s="125"/>
-      <c r="CC4" s="125"/>
-      <c r="CD4" s="125"/>
-      <c r="CE4" s="125"/>
-      <c r="CF4" s="126"/>
-      <c r="CG4" s="124">
+      <c r="CA4" s="240"/>
+      <c r="CB4" s="240"/>
+      <c r="CC4" s="240"/>
+      <c r="CD4" s="240"/>
+      <c r="CE4" s="240"/>
+      <c r="CF4" s="241"/>
+      <c r="CG4" s="239">
         <f>CG5</f>
         <v>44872</v>
       </c>
-      <c r="CH4" s="125"/>
-      <c r="CI4" s="125"/>
-      <c r="CJ4" s="125"/>
-      <c r="CK4" s="125"/>
-      <c r="CL4" s="125"/>
-      <c r="CM4" s="126"/>
-      <c r="CN4" s="124">
+      <c r="CH4" s="240"/>
+      <c r="CI4" s="240"/>
+      <c r="CJ4" s="240"/>
+      <c r="CK4" s="240"/>
+      <c r="CL4" s="240"/>
+      <c r="CM4" s="241"/>
+      <c r="CN4" s="239">
         <f>CN5</f>
         <v>44879</v>
       </c>
-      <c r="CO4" s="125"/>
-      <c r="CP4" s="125"/>
-      <c r="CQ4" s="125"/>
-      <c r="CR4" s="125"/>
-      <c r="CS4" s="125"/>
-      <c r="CT4" s="126"/>
-      <c r="CU4" s="124">
+      <c r="CO4" s="240"/>
+      <c r="CP4" s="240"/>
+      <c r="CQ4" s="240"/>
+      <c r="CR4" s="240"/>
+      <c r="CS4" s="240"/>
+      <c r="CT4" s="241"/>
+      <c r="CU4" s="239">
         <f>CU5</f>
         <v>44886</v>
       </c>
-      <c r="CV4" s="125"/>
-      <c r="CW4" s="125"/>
-      <c r="CX4" s="125"/>
-      <c r="CY4" s="125"/>
-      <c r="CZ4" s="125"/>
-      <c r="DA4" s="126"/>
-      <c r="DB4" s="124">
+      <c r="CV4" s="240"/>
+      <c r="CW4" s="240"/>
+      <c r="CX4" s="240"/>
+      <c r="CY4" s="240"/>
+      <c r="CZ4" s="240"/>
+      <c r="DA4" s="241"/>
+      <c r="DB4" s="239">
         <f>DB5</f>
         <v>44893</v>
       </c>
-      <c r="DC4" s="125"/>
-      <c r="DD4" s="125"/>
-      <c r="DE4" s="125"/>
-      <c r="DF4" s="125"/>
-      <c r="DG4" s="125"/>
-      <c r="DH4" s="126"/>
+      <c r="DC4" s="240"/>
+      <c r="DD4" s="240"/>
+      <c r="DE4" s="240"/>
+      <c r="DF4" s="240"/>
+      <c r="DG4" s="240"/>
+      <c r="DH4" s="241"/>
     </row>
     <row r="5" spans="1:112" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
@@ -4150,55 +4150,55 @@
     </row>
     <row r="9" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="127" t="s">
         <v>138</v>
       </c>
-      <c r="C9" s="135">
+      <c r="C9" s="128">
         <v>1</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="129">
         <v>44799</v>
       </c>
-      <c r="E9" s="137">
+      <c r="E9" s="130">
         <v>44819</v>
       </c>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
-      <c r="V9" s="139"/>
-      <c r="W9" s="139"/>
-      <c r="X9" s="140"/>
-      <c r="Y9" s="139"/>
-      <c r="Z9" s="139"/>
-      <c r="AA9" s="139"/>
-      <c r="AB9" s="139"/>
-      <c r="AC9" s="139"/>
-      <c r="AD9" s="139"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="139"/>
-      <c r="AG9" s="149"/>
-      <c r="AH9" s="149"/>
-      <c r="AI9" s="149"/>
-      <c r="AJ9" s="149"/>
-      <c r="AK9" s="149"/>
-      <c r="AL9" s="149"/>
-      <c r="AM9" s="149"/>
-      <c r="AN9" s="149"/>
-      <c r="AO9" s="149"/>
-      <c r="AP9" s="149"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="133"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="132"/>
+      <c r="AE9" s="132"/>
+      <c r="AF9" s="132"/>
+      <c r="AG9" s="142"/>
+      <c r="AH9" s="142"/>
+      <c r="AI9" s="142"/>
+      <c r="AJ9" s="142"/>
+      <c r="AK9" s="142"/>
+      <c r="AL9" s="142"/>
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="142"/>
+      <c r="AO9" s="142"/>
+      <c r="AP9" s="142"/>
       <c r="AQ9" s="25"/>
       <c r="AR9" s="25"/>
       <c r="AS9" s="25"/>
@@ -4272,48 +4272,48 @@
     </row>
     <row r="10" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
-      <c r="B10" s="156" t="s">
+      <c r="B10" s="149" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="157">
+      <c r="C10" s="150">
         <v>1</v>
       </c>
-      <c r="D10" s="158">
+      <c r="D10" s="151">
         <v>44799</v>
       </c>
-      <c r="E10" s="159">
+      <c r="E10" s="152">
         <v>44815</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160">
+      <c r="F10" s="153"/>
+      <c r="G10" s="153">
         <f t="shared" si="42"/>
         <v>17</v>
       </c>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="161"/>
-      <c r="R10" s="161"/>
-      <c r="S10" s="161"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="161"/>
-      <c r="W10" s="161"/>
-      <c r="X10" s="161"/>
-      <c r="Y10" s="161"/>
-      <c r="Z10" s="161"/>
-      <c r="AA10" s="161"/>
-      <c r="AB10" s="161"/>
-      <c r="AC10" s="161"/>
-      <c r="AD10" s="161"/>
-      <c r="AE10" s="161"/>
-      <c r="AF10" s="161"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="154"/>
+      <c r="W10" s="154"/>
+      <c r="X10" s="154"/>
+      <c r="Y10" s="154"/>
+      <c r="Z10" s="154"/>
+      <c r="AA10" s="154"/>
+      <c r="AB10" s="154"/>
+      <c r="AC10" s="154"/>
+      <c r="AD10" s="154"/>
+      <c r="AE10" s="154"/>
+      <c r="AF10" s="154"/>
       <c r="AG10" s="25"/>
       <c r="AH10" s="25"/>
       <c r="AI10" s="25"/>
@@ -4397,45 +4397,45 @@
     </row>
     <row r="11" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
-      <c r="B11" s="156" t="s">
+      <c r="B11" s="149" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="157">
+      <c r="C11" s="150">
         <v>1</v>
       </c>
-      <c r="D11" s="158">
+      <c r="D11" s="151">
         <v>44802</v>
       </c>
-      <c r="E11" s="159">
+      <c r="E11" s="152">
         <v>44816</v>
       </c>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
-      <c r="S11" s="161"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="161"/>
-      <c r="W11" s="161"/>
-      <c r="X11" s="161"/>
-      <c r="Y11" s="161"/>
-      <c r="Z11" s="161"/>
-      <c r="AA11" s="161"/>
-      <c r="AB11" s="161"/>
-      <c r="AC11" s="161"/>
-      <c r="AD11" s="161"/>
-      <c r="AE11" s="161"/>
-      <c r="AF11" s="161"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
+      <c r="L11" s="154"/>
+      <c r="M11" s="154"/>
+      <c r="N11" s="154"/>
+      <c r="O11" s="154"/>
+      <c r="P11" s="154"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="154"/>
+      <c r="S11" s="154"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="154"/>
+      <c r="W11" s="154"/>
+      <c r="X11" s="154"/>
+      <c r="Y11" s="154"/>
+      <c r="Z11" s="154"/>
+      <c r="AA11" s="154"/>
+      <c r="AB11" s="154"/>
+      <c r="AC11" s="154"/>
+      <c r="AD11" s="154"/>
+      <c r="AE11" s="154"/>
+      <c r="AF11" s="154"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="25"/>
       <c r="AI11" s="25"/>
@@ -4519,45 +4519,45 @@
     </row>
     <row r="12" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="157">
+      <c r="C12" s="150">
         <v>1</v>
       </c>
-      <c r="D12" s="158">
+      <c r="D12" s="151">
         <v>44802</v>
       </c>
-      <c r="E12" s="159">
+      <c r="E12" s="152">
         <v>44816</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="161"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="161"/>
-      <c r="R12" s="161"/>
-      <c r="S12" s="161"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="161"/>
-      <c r="W12" s="161"/>
-      <c r="X12" s="161"/>
-      <c r="Y12" s="161"/>
-      <c r="Z12" s="161"/>
-      <c r="AA12" s="161"/>
-      <c r="AB12" s="161"/>
-      <c r="AC12" s="161"/>
-      <c r="AD12" s="161"/>
-      <c r="AE12" s="161"/>
-      <c r="AF12" s="161"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
+      <c r="K12" s="154"/>
+      <c r="L12" s="154"/>
+      <c r="M12" s="154"/>
+      <c r="N12" s="154"/>
+      <c r="O12" s="154"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="154"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="154"/>
+      <c r="W12" s="154"/>
+      <c r="X12" s="154"/>
+      <c r="Y12" s="154"/>
+      <c r="Z12" s="154"/>
+      <c r="AA12" s="154"/>
+      <c r="AB12" s="154"/>
+      <c r="AC12" s="154"/>
+      <c r="AD12" s="154"/>
+      <c r="AE12" s="154"/>
+      <c r="AF12" s="154"/>
       <c r="AG12" s="25"/>
       <c r="AH12" s="25"/>
       <c r="AI12" s="25"/>
@@ -4641,48 +4641,48 @@
     </row>
     <row r="13" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
-      <c r="B13" s="156" t="s">
+      <c r="B13" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="157">
+      <c r="C13" s="150">
         <v>1</v>
       </c>
-      <c r="D13" s="158">
+      <c r="D13" s="151">
         <v>44802</v>
       </c>
-      <c r="E13" s="159">
+      <c r="E13" s="152">
         <v>44815</v>
       </c>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <f t="shared" si="42"/>
         <v>14</v>
       </c>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="161"/>
-      <c r="R13" s="161"/>
-      <c r="S13" s="161"/>
-      <c r="T13" s="161"/>
-      <c r="U13" s="161"/>
-      <c r="V13" s="161"/>
-      <c r="W13" s="161"/>
-      <c r="X13" s="161"/>
-      <c r="Y13" s="161"/>
-      <c r="Z13" s="161"/>
-      <c r="AA13" s="161"/>
-      <c r="AB13" s="161"/>
-      <c r="AC13" s="161"/>
-      <c r="AD13" s="161"/>
-      <c r="AE13" s="161"/>
-      <c r="AF13" s="161"/>
+      <c r="H13" s="154"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="154"/>
+      <c r="K13" s="154"/>
+      <c r="L13" s="154"/>
+      <c r="M13" s="154"/>
+      <c r="N13" s="154"/>
+      <c r="O13" s="154"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="154"/>
+      <c r="T13" s="154"/>
+      <c r="U13" s="154"/>
+      <c r="V13" s="154"/>
+      <c r="W13" s="154"/>
+      <c r="X13" s="154"/>
+      <c r="Y13" s="154"/>
+      <c r="Z13" s="154"/>
+      <c r="AA13" s="154"/>
+      <c r="AB13" s="154"/>
+      <c r="AC13" s="154"/>
+      <c r="AD13" s="154"/>
+      <c r="AE13" s="154"/>
+      <c r="AF13" s="154"/>
       <c r="AG13" s="25"/>
       <c r="AH13" s="25"/>
       <c r="AI13" s="25"/>
@@ -4766,48 +4766,48 @@
     </row>
     <row r="14" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="157">
+      <c r="C14" s="150">
         <v>1</v>
       </c>
-      <c r="D14" s="158">
+      <c r="D14" s="151">
         <v>44815</v>
       </c>
-      <c r="E14" s="159">
+      <c r="E14" s="152">
         <v>44819</v>
       </c>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160">
+      <c r="F14" s="153"/>
+      <c r="G14" s="153">
         <f t="shared" si="42"/>
         <v>5</v>
       </c>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="161"/>
-      <c r="R14" s="161"/>
-      <c r="S14" s="161"/>
-      <c r="T14" s="161"/>
-      <c r="U14" s="161"/>
-      <c r="V14" s="161"/>
-      <c r="W14" s="161"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="161"/>
-      <c r="Z14" s="161"/>
-      <c r="AA14" s="161"/>
-      <c r="AB14" s="161"/>
-      <c r="AC14" s="161"/>
-      <c r="AD14" s="161"/>
-      <c r="AE14" s="161"/>
-      <c r="AF14" s="161"/>
+      <c r="H14" s="154"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="154"/>
+      <c r="K14" s="154"/>
+      <c r="L14" s="154"/>
+      <c r="M14" s="154"/>
+      <c r="N14" s="154"/>
+      <c r="O14" s="154"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="154"/>
+      <c r="T14" s="154"/>
+      <c r="U14" s="154"/>
+      <c r="V14" s="154"/>
+      <c r="W14" s="154"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="154"/>
+      <c r="Z14" s="154"/>
+      <c r="AA14" s="154"/>
+      <c r="AB14" s="154"/>
+      <c r="AC14" s="154"/>
+      <c r="AD14" s="154"/>
+      <c r="AE14" s="154"/>
+      <c r="AF14" s="154"/>
       <c r="AG14" s="25"/>
       <c r="AH14" s="25"/>
       <c r="AI14" s="25"/>
@@ -4891,55 +4891,55 @@
     </row>
     <row r="15" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="135">
+      <c r="C15" s="128">
         <v>1</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="129">
         <v>44822</v>
       </c>
-      <c r="E15" s="137">
+      <c r="E15" s="130">
         <v>44829</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="139"/>
-      <c r="Q15" s="139"/>
-      <c r="R15" s="139"/>
-      <c r="S15" s="139"/>
-      <c r="T15" s="139"/>
-      <c r="U15" s="139"/>
-      <c r="V15" s="139"/>
-      <c r="W15" s="139"/>
-      <c r="X15" s="140"/>
-      <c r="Y15" s="139"/>
-      <c r="Z15" s="139"/>
-      <c r="AA15" s="139"/>
-      <c r="AB15" s="139"/>
-      <c r="AC15" s="139"/>
-      <c r="AD15" s="139"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="139"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="139"/>
-      <c r="AJ15" s="139"/>
-      <c r="AK15" s="139"/>
-      <c r="AL15" s="139"/>
-      <c r="AM15" s="139"/>
-      <c r="AN15" s="139"/>
-      <c r="AO15" s="139"/>
-      <c r="AP15" s="139"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+      <c r="AB15" s="132"/>
+      <c r="AC15" s="132"/>
+      <c r="AD15" s="132"/>
+      <c r="AE15" s="132"/>
+      <c r="AF15" s="132"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="132"/>
+      <c r="AJ15" s="132"/>
+      <c r="AK15" s="132"/>
+      <c r="AL15" s="132"/>
+      <c r="AM15" s="132"/>
+      <c r="AN15" s="132"/>
+      <c r="AO15" s="132"/>
+      <c r="AP15" s="132"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="25"/>
       <c r="AS15" s="25"/>
@@ -5013,55 +5013,55 @@
     </row>
     <row r="16" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
-      <c r="B16" s="156" t="s">
+      <c r="B16" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="157">
+      <c r="C16" s="150">
         <v>1</v>
       </c>
-      <c r="D16" s="158">
+      <c r="D16" s="151">
         <v>44822</v>
       </c>
-      <c r="E16" s="159">
+      <c r="E16" s="152">
         <v>44823</v>
       </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="161"/>
-      <c r="I16" s="161"/>
-      <c r="J16" s="161"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="161"/>
-      <c r="R16" s="161"/>
-      <c r="S16" s="161"/>
-      <c r="T16" s="161"/>
-      <c r="U16" s="161"/>
-      <c r="V16" s="161"/>
-      <c r="W16" s="161"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="161"/>
-      <c r="Z16" s="161"/>
-      <c r="AA16" s="161"/>
-      <c r="AB16" s="161"/>
-      <c r="AC16" s="161"/>
-      <c r="AD16" s="161"/>
-      <c r="AE16" s="161"/>
-      <c r="AF16" s="161"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="161"/>
-      <c r="AJ16" s="161"/>
-      <c r="AK16" s="161"/>
-      <c r="AL16" s="161"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="161"/>
-      <c r="AO16" s="161"/>
-      <c r="AP16" s="161"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="154"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="154"/>
+      <c r="T16" s="154"/>
+      <c r="U16" s="154"/>
+      <c r="V16" s="154"/>
+      <c r="W16" s="154"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="154"/>
+      <c r="Z16" s="154"/>
+      <c r="AA16" s="154"/>
+      <c r="AB16" s="154"/>
+      <c r="AC16" s="154"/>
+      <c r="AD16" s="154"/>
+      <c r="AE16" s="154"/>
+      <c r="AF16" s="154"/>
+      <c r="AG16" s="154"/>
+      <c r="AH16" s="154"/>
+      <c r="AI16" s="154"/>
+      <c r="AJ16" s="154"/>
+      <c r="AK16" s="154"/>
+      <c r="AL16" s="154"/>
+      <c r="AM16" s="154"/>
+      <c r="AN16" s="154"/>
+      <c r="AO16" s="154"/>
+      <c r="AP16" s="154"/>
       <c r="AQ16" s="25"/>
       <c r="AR16" s="25"/>
       <c r="AS16" s="25"/>
@@ -5135,55 +5135,55 @@
     </row>
     <row r="17" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
-      <c r="B17" s="156" t="s">
+      <c r="B17" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="157">
+      <c r="C17" s="150">
         <v>1</v>
       </c>
-      <c r="D17" s="163">
+      <c r="D17" s="156">
         <v>44823</v>
       </c>
-      <c r="E17" s="164">
+      <c r="E17" s="157">
         <v>44824</v>
       </c>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
-      <c r="J17" s="161"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="161"/>
-      <c r="R17" s="161"/>
-      <c r="S17" s="161"/>
-      <c r="T17" s="161"/>
-      <c r="U17" s="161"/>
-      <c r="V17" s="161"/>
-      <c r="W17" s="161"/>
-      <c r="X17" s="162"/>
-      <c r="Y17" s="161"/>
-      <c r="Z17" s="161"/>
-      <c r="AA17" s="161"/>
-      <c r="AB17" s="161"/>
-      <c r="AC17" s="161"/>
-      <c r="AD17" s="161"/>
-      <c r="AE17" s="161"/>
-      <c r="AF17" s="161"/>
-      <c r="AG17" s="161"/>
-      <c r="AH17" s="161"/>
-      <c r="AI17" s="161"/>
-      <c r="AJ17" s="161"/>
-      <c r="AK17" s="161"/>
-      <c r="AL17" s="161"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="161"/>
-      <c r="AO17" s="161"/>
-      <c r="AP17" s="161"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
+      <c r="K17" s="154"/>
+      <c r="L17" s="154"/>
+      <c r="M17" s="154"/>
+      <c r="N17" s="154"/>
+      <c r="O17" s="154"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="155"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+      <c r="AF17" s="154"/>
+      <c r="AG17" s="154"/>
+      <c r="AH17" s="154"/>
+      <c r="AI17" s="154"/>
+      <c r="AJ17" s="154"/>
+      <c r="AK17" s="154"/>
+      <c r="AL17" s="154"/>
+      <c r="AM17" s="154"/>
+      <c r="AN17" s="154"/>
+      <c r="AO17" s="154"/>
+      <c r="AP17" s="154"/>
       <c r="AQ17" s="25"/>
       <c r="AR17" s="25"/>
       <c r="AS17" s="25"/>
@@ -5257,55 +5257,55 @@
     </row>
     <row r="18" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
-      <c r="B18" s="156" t="s">
+      <c r="B18" s="149" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="157">
+      <c r="C18" s="150">
         <v>1</v>
       </c>
-      <c r="D18" s="163">
+      <c r="D18" s="156">
         <v>44824</v>
       </c>
-      <c r="E18" s="164">
+      <c r="E18" s="157">
         <v>44826</v>
       </c>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
-      <c r="S18" s="161"/>
-      <c r="T18" s="161"/>
-      <c r="U18" s="161"/>
-      <c r="V18" s="161"/>
-      <c r="W18" s="161"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="161"/>
-      <c r="Z18" s="161"/>
-      <c r="AA18" s="161"/>
-      <c r="AB18" s="161"/>
-      <c r="AC18" s="161"/>
-      <c r="AD18" s="161"/>
-      <c r="AE18" s="161"/>
-      <c r="AF18" s="161"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="161"/>
-      <c r="AJ18" s="161"/>
-      <c r="AK18" s="161"/>
-      <c r="AL18" s="161"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="161"/>
-      <c r="AO18" s="161"/>
-      <c r="AP18" s="161"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
+      <c r="K18" s="154"/>
+      <c r="L18" s="154"/>
+      <c r="M18" s="154"/>
+      <c r="N18" s="154"/>
+      <c r="O18" s="154"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="154"/>
+      <c r="T18" s="154"/>
+      <c r="U18" s="154"/>
+      <c r="V18" s="154"/>
+      <c r="W18" s="154"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="154"/>
+      <c r="Z18" s="154"/>
+      <c r="AA18" s="154"/>
+      <c r="AB18" s="154"/>
+      <c r="AC18" s="154"/>
+      <c r="AD18" s="154"/>
+      <c r="AE18" s="154"/>
+      <c r="AF18" s="154"/>
+      <c r="AG18" s="154"/>
+      <c r="AH18" s="154"/>
+      <c r="AI18" s="154"/>
+      <c r="AJ18" s="154"/>
+      <c r="AK18" s="154"/>
+      <c r="AL18" s="154"/>
+      <c r="AM18" s="154"/>
+      <c r="AN18" s="154"/>
+      <c r="AO18" s="154"/>
+      <c r="AP18" s="154"/>
       <c r="AQ18" s="25"/>
       <c r="AR18" s="25"/>
       <c r="AS18" s="25"/>
@@ -5379,55 +5379,55 @@
     </row>
     <row r="19" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
-      <c r="B19" s="156" t="s">
+      <c r="B19" s="149" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="157">
+      <c r="C19" s="150">
         <v>1</v>
       </c>
-      <c r="D19" s="158">
+      <c r="D19" s="151">
         <v>44826</v>
       </c>
-      <c r="E19" s="159">
+      <c r="E19" s="152">
         <v>44829</v>
       </c>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
-      <c r="J19" s="161"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="161"/>
-      <c r="R19" s="161"/>
-      <c r="S19" s="161"/>
-      <c r="T19" s="161"/>
-      <c r="U19" s="161"/>
-      <c r="V19" s="161"/>
-      <c r="W19" s="161"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="161"/>
-      <c r="Z19" s="161"/>
-      <c r="AA19" s="161"/>
-      <c r="AB19" s="161"/>
-      <c r="AC19" s="161"/>
-      <c r="AD19" s="161"/>
-      <c r="AE19" s="161"/>
-      <c r="AF19" s="161"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="161"/>
-      <c r="AI19" s="161"/>
-      <c r="AJ19" s="161"/>
-      <c r="AK19" s="161"/>
-      <c r="AL19" s="161"/>
-      <c r="AM19" s="161"/>
-      <c r="AN19" s="161"/>
-      <c r="AO19" s="161"/>
-      <c r="AP19" s="161"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="154"/>
+      <c r="L19" s="154"/>
+      <c r="M19" s="154"/>
+      <c r="N19" s="154"/>
+      <c r="O19" s="154"/>
+      <c r="P19" s="154"/>
+      <c r="Q19" s="154"/>
+      <c r="R19" s="154"/>
+      <c r="S19" s="154"/>
+      <c r="T19" s="154"/>
+      <c r="U19" s="154"/>
+      <c r="V19" s="154"/>
+      <c r="W19" s="154"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="154"/>
+      <c r="Z19" s="154"/>
+      <c r="AA19" s="154"/>
+      <c r="AB19" s="154"/>
+      <c r="AC19" s="154"/>
+      <c r="AD19" s="154"/>
+      <c r="AE19" s="154"/>
+      <c r="AF19" s="154"/>
+      <c r="AG19" s="154"/>
+      <c r="AH19" s="154"/>
+      <c r="AI19" s="154"/>
+      <c r="AJ19" s="154"/>
+      <c r="AK19" s="154"/>
+      <c r="AL19" s="154"/>
+      <c r="AM19" s="154"/>
+      <c r="AN19" s="154"/>
+      <c r="AO19" s="154"/>
+      <c r="AP19" s="154"/>
       <c r="AQ19" s="25"/>
       <c r="AR19" s="25"/>
       <c r="AS19" s="25"/>
@@ -5501,55 +5501,55 @@
     </row>
     <row r="20" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
-      <c r="B20" s="156" t="s">
+      <c r="B20" s="149" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="157">
+      <c r="C20" s="150">
         <v>1</v>
       </c>
-      <c r="D20" s="158">
+      <c r="D20" s="151">
         <v>44826</v>
       </c>
-      <c r="E20" s="159">
+      <c r="E20" s="152">
         <v>44827</v>
       </c>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="161"/>
-      <c r="R20" s="161"/>
-      <c r="S20" s="161"/>
-      <c r="T20" s="161"/>
-      <c r="U20" s="161"/>
-      <c r="V20" s="161"/>
-      <c r="W20" s="161"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="161"/>
-      <c r="Z20" s="161"/>
-      <c r="AA20" s="161"/>
-      <c r="AB20" s="161"/>
-      <c r="AC20" s="161"/>
-      <c r="AD20" s="161"/>
-      <c r="AE20" s="161"/>
-      <c r="AF20" s="161"/>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="161"/>
-      <c r="AI20" s="161"/>
-      <c r="AJ20" s="161"/>
-      <c r="AK20" s="161"/>
-      <c r="AL20" s="161"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="161"/>
-      <c r="AO20" s="161"/>
-      <c r="AP20" s="161"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+      <c r="P20" s="154"/>
+      <c r="Q20" s="154"/>
+      <c r="R20" s="154"/>
+      <c r="S20" s="154"/>
+      <c r="T20" s="154"/>
+      <c r="U20" s="154"/>
+      <c r="V20" s="154"/>
+      <c r="W20" s="154"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="154"/>
+      <c r="Z20" s="154"/>
+      <c r="AA20" s="154"/>
+      <c r="AB20" s="154"/>
+      <c r="AC20" s="154"/>
+      <c r="AD20" s="154"/>
+      <c r="AE20" s="154"/>
+      <c r="AF20" s="154"/>
+      <c r="AG20" s="154"/>
+      <c r="AH20" s="154"/>
+      <c r="AI20" s="154"/>
+      <c r="AJ20" s="154"/>
+      <c r="AK20" s="154"/>
+      <c r="AL20" s="154"/>
+      <c r="AM20" s="154"/>
+      <c r="AN20" s="154"/>
+      <c r="AO20" s="154"/>
+      <c r="AP20" s="154"/>
       <c r="AQ20" s="25"/>
       <c r="AR20" s="25"/>
       <c r="AS20" s="25"/>
@@ -5623,55 +5623,55 @@
     </row>
     <row r="21" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
-      <c r="B21" s="156" t="s">
+      <c r="B21" s="149" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="157">
+      <c r="C21" s="150">
         <v>1</v>
       </c>
-      <c r="D21" s="158">
+      <c r="D21" s="151">
         <v>44827</v>
       </c>
-      <c r="E21" s="159">
+      <c r="E21" s="152">
         <v>44828</v>
       </c>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="161"/>
-      <c r="R21" s="161"/>
-      <c r="S21" s="161"/>
-      <c r="T21" s="161"/>
-      <c r="U21" s="161"/>
-      <c r="V21" s="161"/>
-      <c r="W21" s="161"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="161"/>
-      <c r="Z21" s="161"/>
-      <c r="AA21" s="161"/>
-      <c r="AB21" s="161"/>
-      <c r="AC21" s="161"/>
-      <c r="AD21" s="161"/>
-      <c r="AE21" s="161"/>
-      <c r="AF21" s="161"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="161"/>
-      <c r="AJ21" s="161"/>
-      <c r="AK21" s="161"/>
-      <c r="AL21" s="161"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="161"/>
-      <c r="AO21" s="161"/>
-      <c r="AP21" s="161"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
+      <c r="P21" s="154"/>
+      <c r="Q21" s="154"/>
+      <c r="R21" s="154"/>
+      <c r="S21" s="154"/>
+      <c r="T21" s="154"/>
+      <c r="U21" s="154"/>
+      <c r="V21" s="154"/>
+      <c r="W21" s="154"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="154"/>
+      <c r="Z21" s="154"/>
+      <c r="AA21" s="154"/>
+      <c r="AB21" s="154"/>
+      <c r="AC21" s="154"/>
+      <c r="AD21" s="154"/>
+      <c r="AE21" s="154"/>
+      <c r="AF21" s="154"/>
+      <c r="AG21" s="154"/>
+      <c r="AH21" s="154"/>
+      <c r="AI21" s="154"/>
+      <c r="AJ21" s="154"/>
+      <c r="AK21" s="154"/>
+      <c r="AL21" s="154"/>
+      <c r="AM21" s="154"/>
+      <c r="AN21" s="154"/>
+      <c r="AO21" s="154"/>
+      <c r="AP21" s="154"/>
       <c r="AQ21" s="25"/>
       <c r="AR21" s="25"/>
       <c r="AS21" s="25"/>
@@ -5745,55 +5745,55 @@
     </row>
     <row r="22" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
-      <c r="B22" s="156" t="s">
+      <c r="B22" s="149" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="157">
+      <c r="C22" s="150">
         <v>1</v>
       </c>
-      <c r="D22" s="158">
+      <c r="D22" s="151">
         <v>44828</v>
       </c>
-      <c r="E22" s="159">
+      <c r="E22" s="152">
         <v>44829</v>
       </c>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="161"/>
-      <c r="R22" s="161"/>
-      <c r="S22" s="161"/>
-      <c r="T22" s="161"/>
-      <c r="U22" s="161"/>
-      <c r="V22" s="161"/>
-      <c r="W22" s="161"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="161"/>
-      <c r="Z22" s="161"/>
-      <c r="AA22" s="161"/>
-      <c r="AB22" s="161"/>
-      <c r="AC22" s="161"/>
-      <c r="AD22" s="161"/>
-      <c r="AE22" s="161"/>
-      <c r="AF22" s="161"/>
-      <c r="AG22" s="161"/>
-      <c r="AH22" s="161"/>
-      <c r="AI22" s="161"/>
-      <c r="AJ22" s="161"/>
-      <c r="AK22" s="161"/>
-      <c r="AL22" s="161"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="161"/>
-      <c r="AO22" s="161"/>
-      <c r="AP22" s="161"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="154"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
+      <c r="P22" s="154"/>
+      <c r="Q22" s="154"/>
+      <c r="R22" s="154"/>
+      <c r="S22" s="154"/>
+      <c r="T22" s="154"/>
+      <c r="U22" s="154"/>
+      <c r="V22" s="154"/>
+      <c r="W22" s="154"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="154"/>
+      <c r="Z22" s="154"/>
+      <c r="AA22" s="154"/>
+      <c r="AB22" s="154"/>
+      <c r="AC22" s="154"/>
+      <c r="AD22" s="154"/>
+      <c r="AE22" s="154"/>
+      <c r="AF22" s="154"/>
+      <c r="AG22" s="154"/>
+      <c r="AH22" s="154"/>
+      <c r="AI22" s="154"/>
+      <c r="AJ22" s="154"/>
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
       <c r="AQ22" s="25"/>
       <c r="AR22" s="25"/>
       <c r="AS22" s="25"/>
@@ -5867,59 +5867,59 @@
     </row>
     <row r="23" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="C23" s="171">
+      <c r="C23" s="164">
         <v>0</v>
       </c>
-      <c r="D23" s="142">
+      <c r="D23" s="135">
         <v>44830</v>
       </c>
-      <c r="E23" s="142">
+      <c r="E23" s="135">
         <v>44832</v>
       </c>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="173"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="173"/>
-      <c r="L23" s="173"/>
-      <c r="M23" s="173"/>
-      <c r="N23" s="173"/>
-      <c r="O23" s="173"/>
-      <c r="P23" s="173"/>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173"/>
-      <c r="S23" s="173"/>
-      <c r="T23" s="173"/>
-      <c r="U23" s="173"/>
-      <c r="V23" s="173"/>
-      <c r="W23" s="173"/>
-      <c r="X23" s="174"/>
-      <c r="Y23" s="173"/>
-      <c r="Z23" s="173"/>
-      <c r="AA23" s="173"/>
-      <c r="AB23" s="173"/>
-      <c r="AC23" s="173"/>
-      <c r="AD23" s="173"/>
-      <c r="AE23" s="173"/>
-      <c r="AF23" s="173"/>
-      <c r="AG23" s="173"/>
-      <c r="AH23" s="173"/>
-      <c r="AI23" s="173"/>
-      <c r="AJ23" s="173"/>
-      <c r="AK23" s="173"/>
-      <c r="AL23" s="173"/>
-      <c r="AM23" s="173"/>
-      <c r="AN23" s="173"/>
-      <c r="AO23" s="173"/>
-      <c r="AP23" s="173"/>
-      <c r="AQ23" s="173"/>
-      <c r="AR23" s="173"/>
-      <c r="AS23" s="173"/>
-      <c r="AT23" s="131"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="166"/>
+      <c r="Q23" s="166"/>
+      <c r="R23" s="166"/>
+      <c r="S23" s="166"/>
+      <c r="T23" s="166"/>
+      <c r="U23" s="166"/>
+      <c r="V23" s="166"/>
+      <c r="W23" s="166"/>
+      <c r="X23" s="167"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="166"/>
+      <c r="AA23" s="166"/>
+      <c r="AB23" s="166"/>
+      <c r="AC23" s="166"/>
+      <c r="AD23" s="166"/>
+      <c r="AE23" s="166"/>
+      <c r="AF23" s="166"/>
+      <c r="AG23" s="166"/>
+      <c r="AH23" s="166"/>
+      <c r="AI23" s="166"/>
+      <c r="AJ23" s="166"/>
+      <c r="AK23" s="166"/>
+      <c r="AL23" s="166"/>
+      <c r="AM23" s="166"/>
+      <c r="AN23" s="166"/>
+      <c r="AO23" s="166"/>
+      <c r="AP23" s="166"/>
+      <c r="AQ23" s="166"/>
+      <c r="AR23" s="166"/>
+      <c r="AS23" s="166"/>
+      <c r="AT23" s="124"/>
       <c r="AU23" s="25"/>
       <c r="AV23" s="25"/>
       <c r="AW23" s="25"/>
@@ -5989,59 +5989,59 @@
     </row>
     <row r="24" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
-      <c r="B24" s="150" t="s">
+      <c r="B24" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="151">
+      <c r="C24" s="144">
         <v>0</v>
       </c>
-      <c r="D24" s="152">
+      <c r="D24" s="145">
         <v>44830</v>
       </c>
-      <c r="E24" s="152">
+      <c r="E24" s="145">
         <v>44831</v>
       </c>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="154"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="154"/>
-      <c r="K24" s="154"/>
-      <c r="L24" s="154"/>
-      <c r="M24" s="154"/>
-      <c r="N24" s="154"/>
-      <c r="O24" s="154"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="154"/>
-      <c r="T24" s="154"/>
-      <c r="U24" s="154"/>
-      <c r="V24" s="154"/>
-      <c r="W24" s="154"/>
-      <c r="X24" s="155"/>
-      <c r="Y24" s="154"/>
-      <c r="Z24" s="154"/>
-      <c r="AA24" s="154"/>
-      <c r="AB24" s="154"/>
-      <c r="AC24" s="154"/>
-      <c r="AD24" s="154"/>
-      <c r="AE24" s="154"/>
-      <c r="AF24" s="154"/>
-      <c r="AG24" s="154"/>
-      <c r="AH24" s="154"/>
-      <c r="AI24" s="154"/>
-      <c r="AJ24" s="154"/>
-      <c r="AK24" s="154"/>
-      <c r="AL24" s="154"/>
-      <c r="AM24" s="154"/>
-      <c r="AN24" s="154"/>
-      <c r="AO24" s="154"/>
-      <c r="AP24" s="154"/>
-      <c r="AQ24" s="154"/>
-      <c r="AR24" s="154"/>
-      <c r="AS24" s="154"/>
-      <c r="AT24" s="131"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="147"/>
+      <c r="R24" s="147"/>
+      <c r="S24" s="147"/>
+      <c r="T24" s="147"/>
+      <c r="U24" s="147"/>
+      <c r="V24" s="147"/>
+      <c r="W24" s="147"/>
+      <c r="X24" s="148"/>
+      <c r="Y24" s="147"/>
+      <c r="Z24" s="147"/>
+      <c r="AA24" s="147"/>
+      <c r="AB24" s="147"/>
+      <c r="AC24" s="147"/>
+      <c r="AD24" s="147"/>
+      <c r="AE24" s="147"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="147"/>
+      <c r="AH24" s="147"/>
+      <c r="AI24" s="147"/>
+      <c r="AJ24" s="147"/>
+      <c r="AK24" s="147"/>
+      <c r="AL24" s="147"/>
+      <c r="AM24" s="147"/>
+      <c r="AN24" s="147"/>
+      <c r="AO24" s="147"/>
+      <c r="AP24" s="147"/>
+      <c r="AQ24" s="147"/>
+      <c r="AR24" s="147"/>
+      <c r="AS24" s="147"/>
+      <c r="AT24" s="124"/>
       <c r="AU24" s="25"/>
       <c r="AV24" s="25"/>
       <c r="AW24" s="25"/>
@@ -6111,59 +6111,59 @@
     </row>
     <row r="25" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
-      <c r="B25" s="150" t="s">
+      <c r="B25" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="151">
+      <c r="C25" s="144">
         <v>0</v>
       </c>
-      <c r="D25" s="152">
+      <c r="D25" s="145">
         <v>44831</v>
       </c>
-      <c r="E25" s="152">
+      <c r="E25" s="145">
         <v>44832</v>
       </c>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="154"/>
-      <c r="R25" s="154"/>
-      <c r="S25" s="154"/>
-      <c r="T25" s="154"/>
-      <c r="U25" s="154"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="154"/>
-      <c r="X25" s="155"/>
-      <c r="Y25" s="154"/>
-      <c r="Z25" s="154"/>
-      <c r="AA25" s="154"/>
-      <c r="AB25" s="154"/>
-      <c r="AC25" s="154"/>
-      <c r="AD25" s="154"/>
-      <c r="AE25" s="154"/>
-      <c r="AF25" s="154"/>
-      <c r="AG25" s="154"/>
-      <c r="AH25" s="154"/>
-      <c r="AI25" s="154"/>
-      <c r="AJ25" s="154"/>
-      <c r="AK25" s="154"/>
-      <c r="AL25" s="154"/>
-      <c r="AM25" s="154"/>
-      <c r="AN25" s="154"/>
-      <c r="AO25" s="154"/>
-      <c r="AP25" s="154"/>
-      <c r="AQ25" s="154"/>
-      <c r="AR25" s="154"/>
-      <c r="AS25" s="154"/>
-      <c r="AT25" s="131"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="147"/>
+      <c r="Q25" s="147"/>
+      <c r="R25" s="147"/>
+      <c r="S25" s="147"/>
+      <c r="T25" s="147"/>
+      <c r="U25" s="147"/>
+      <c r="V25" s="147"/>
+      <c r="W25" s="147"/>
+      <c r="X25" s="148"/>
+      <c r="Y25" s="147"/>
+      <c r="Z25" s="147"/>
+      <c r="AA25" s="147"/>
+      <c r="AB25" s="147"/>
+      <c r="AC25" s="147"/>
+      <c r="AD25" s="147"/>
+      <c r="AE25" s="147"/>
+      <c r="AF25" s="147"/>
+      <c r="AG25" s="147"/>
+      <c r="AH25" s="147"/>
+      <c r="AI25" s="147"/>
+      <c r="AJ25" s="147"/>
+      <c r="AK25" s="147"/>
+      <c r="AL25" s="147"/>
+      <c r="AM25" s="147"/>
+      <c r="AN25" s="147"/>
+      <c r="AO25" s="147"/>
+      <c r="AP25" s="147"/>
+      <c r="AQ25" s="147"/>
+      <c r="AR25" s="147"/>
+      <c r="AS25" s="147"/>
+      <c r="AT25" s="124"/>
       <c r="AU25" s="25"/>
       <c r="AV25" s="25"/>
       <c r="AW25" s="25"/>
@@ -6232,72 +6232,72 @@
       <c r="DH25" s="25"/>
     </row>
     <row r="26" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="133" t="s">
+      <c r="A26" s="126" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="C26" s="143">
+      <c r="C26" s="136">
         <v>0</v>
       </c>
-      <c r="D26" s="144">
+      <c r="D26" s="137">
         <v>44837</v>
       </c>
-      <c r="E26" s="144">
+      <c r="E26" s="137">
         <v>44837</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="146"/>
-      <c r="S26" s="146"/>
-      <c r="T26" s="146"/>
-      <c r="U26" s="146"/>
-      <c r="V26" s="146"/>
-      <c r="W26" s="146"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="146"/>
-      <c r="Z26" s="146"/>
-      <c r="AA26" s="146"/>
-      <c r="AB26" s="146"/>
-      <c r="AC26" s="146"/>
-      <c r="AD26" s="146"/>
-      <c r="AE26" s="146"/>
-      <c r="AF26" s="146"/>
-      <c r="AG26" s="146"/>
-      <c r="AH26" s="146"/>
-      <c r="AI26" s="146"/>
-      <c r="AJ26" s="146"/>
-      <c r="AK26" s="146"/>
-      <c r="AL26" s="146"/>
-      <c r="AM26" s="146"/>
-      <c r="AN26" s="146"/>
-      <c r="AO26" s="146"/>
-      <c r="AP26" s="146"/>
-      <c r="AQ26" s="146"/>
-      <c r="AR26" s="146"/>
-      <c r="AS26" s="146"/>
-      <c r="AT26" s="146"/>
-      <c r="AU26" s="146"/>
-      <c r="AV26" s="146"/>
-      <c r="AW26" s="146"/>
-      <c r="AX26" s="146"/>
-      <c r="AY26" s="175"/>
-      <c r="AZ26" s="131"/>
-      <c r="BA26" s="131"/>
-      <c r="BB26" s="131"/>
-      <c r="BC26" s="131"/>
-      <c r="BD26" s="131"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="139"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="140"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="139"/>
+      <c r="AF26" s="139"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="139"/>
+      <c r="AJ26" s="139"/>
+      <c r="AK26" s="139"/>
+      <c r="AL26" s="139"/>
+      <c r="AM26" s="139"/>
+      <c r="AN26" s="139"/>
+      <c r="AO26" s="139"/>
+      <c r="AP26" s="139"/>
+      <c r="AQ26" s="139"/>
+      <c r="AR26" s="139"/>
+      <c r="AS26" s="139"/>
+      <c r="AT26" s="139"/>
+      <c r="AU26" s="139"/>
+      <c r="AV26" s="139"/>
+      <c r="AW26" s="139"/>
+      <c r="AX26" s="139"/>
+      <c r="AY26" s="168"/>
+      <c r="AZ26" s="124"/>
+      <c r="BA26" s="124"/>
+      <c r="BB26" s="124"/>
+      <c r="BC26" s="124"/>
+      <c r="BD26" s="124"/>
       <c r="BE26" s="25"/>
       <c r="BF26" s="25"/>
       <c r="BG26" s="25"/>
@@ -6356,72 +6356,72 @@
       <c r="DH26" s="25"/>
     </row>
     <row r="27" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="133" t="s">
+      <c r="A27" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="166">
+      <c r="C27" s="159">
         <v>0</v>
       </c>
-      <c r="D27" s="167">
+      <c r="D27" s="160">
         <v>44837</v>
       </c>
-      <c r="E27" s="167">
+      <c r="E27" s="160">
         <v>44837</v>
       </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="169"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="169"/>
-      <c r="M27" s="169"/>
-      <c r="N27" s="169"/>
-      <c r="O27" s="169"/>
-      <c r="P27" s="169"/>
-      <c r="Q27" s="169"/>
-      <c r="R27" s="169"/>
-      <c r="S27" s="169"/>
-      <c r="T27" s="169"/>
-      <c r="U27" s="169"/>
-      <c r="V27" s="169"/>
-      <c r="W27" s="169"/>
-      <c r="X27" s="170"/>
-      <c r="Y27" s="169"/>
-      <c r="Z27" s="169"/>
-      <c r="AA27" s="169"/>
-      <c r="AB27" s="169"/>
-      <c r="AC27" s="169"/>
-      <c r="AD27" s="169"/>
-      <c r="AE27" s="169"/>
-      <c r="AF27" s="169"/>
-      <c r="AG27" s="169"/>
-      <c r="AH27" s="169"/>
-      <c r="AI27" s="169"/>
-      <c r="AJ27" s="169"/>
-      <c r="AK27" s="169"/>
-      <c r="AL27" s="169"/>
-      <c r="AM27" s="169"/>
-      <c r="AN27" s="169"/>
-      <c r="AO27" s="169"/>
-      <c r="AP27" s="169"/>
-      <c r="AQ27" s="169"/>
-      <c r="AR27" s="169"/>
-      <c r="AS27" s="169"/>
-      <c r="AT27" s="169"/>
-      <c r="AU27" s="169"/>
-      <c r="AV27" s="169"/>
-      <c r="AW27" s="169"/>
-      <c r="AX27" s="169"/>
-      <c r="AY27" s="131"/>
-      <c r="AZ27" s="131"/>
-      <c r="BA27" s="131"/>
-      <c r="BB27" s="131"/>
-      <c r="BC27" s="131"/>
-      <c r="BD27" s="131"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="162"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+      <c r="AB27" s="162"/>
+      <c r="AC27" s="162"/>
+      <c r="AD27" s="162"/>
+      <c r="AE27" s="162"/>
+      <c r="AF27" s="162"/>
+      <c r="AG27" s="162"/>
+      <c r="AH27" s="162"/>
+      <c r="AI27" s="162"/>
+      <c r="AJ27" s="162"/>
+      <c r="AK27" s="162"/>
+      <c r="AL27" s="162"/>
+      <c r="AM27" s="162"/>
+      <c r="AN27" s="162"/>
+      <c r="AO27" s="162"/>
+      <c r="AP27" s="162"/>
+      <c r="AQ27" s="162"/>
+      <c r="AR27" s="162"/>
+      <c r="AS27" s="162"/>
+      <c r="AT27" s="162"/>
+      <c r="AU27" s="162"/>
+      <c r="AV27" s="162"/>
+      <c r="AW27" s="162"/>
+      <c r="AX27" s="162"/>
+      <c r="AY27" s="124"/>
+      <c r="AZ27" s="124"/>
+      <c r="BA27" s="124"/>
+      <c r="BB27" s="124"/>
+      <c r="BC27" s="124"/>
+      <c r="BD27" s="124"/>
       <c r="BE27" s="25"/>
       <c r="BF27" s="25"/>
       <c r="BG27" s="25"/>
@@ -6480,72 +6480,72 @@
       <c r="DH27" s="25"/>
     </row>
     <row r="28" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="126" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="158" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="166">
+      <c r="C28" s="159">
         <v>0</v>
       </c>
-      <c r="D28" s="167">
+      <c r="D28" s="160">
         <v>44837</v>
       </c>
-      <c r="E28" s="167">
+      <c r="E28" s="160">
         <v>44837</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="169"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="169"/>
-      <c r="M28" s="169"/>
-      <c r="N28" s="169"/>
-      <c r="O28" s="169"/>
-      <c r="P28" s="169"/>
-      <c r="Q28" s="169"/>
-      <c r="R28" s="169"/>
-      <c r="S28" s="169"/>
-      <c r="T28" s="169"/>
-      <c r="U28" s="169"/>
-      <c r="V28" s="169"/>
-      <c r="W28" s="169"/>
-      <c r="X28" s="170"/>
-      <c r="Y28" s="169"/>
-      <c r="Z28" s="169"/>
-      <c r="AA28" s="169"/>
-      <c r="AB28" s="169"/>
-      <c r="AC28" s="169"/>
-      <c r="AD28" s="169"/>
-      <c r="AE28" s="169"/>
-      <c r="AF28" s="169"/>
-      <c r="AG28" s="169"/>
-      <c r="AH28" s="169"/>
-      <c r="AI28" s="169"/>
-      <c r="AJ28" s="169"/>
-      <c r="AK28" s="169"/>
-      <c r="AL28" s="169"/>
-      <c r="AM28" s="169"/>
-      <c r="AN28" s="169"/>
-      <c r="AO28" s="169"/>
-      <c r="AP28" s="169"/>
-      <c r="AQ28" s="169"/>
-      <c r="AR28" s="169"/>
-      <c r="AS28" s="169"/>
-      <c r="AT28" s="169"/>
-      <c r="AU28" s="169"/>
-      <c r="AV28" s="169"/>
-      <c r="AW28" s="169"/>
-      <c r="AX28" s="169"/>
-      <c r="AY28" s="131"/>
-      <c r="AZ28" s="131"/>
-      <c r="BA28" s="131"/>
-      <c r="BB28" s="131"/>
-      <c r="BC28" s="131"/>
-      <c r="BD28" s="131"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="163"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="162"/>
+      <c r="AC28" s="162"/>
+      <c r="AD28" s="162"/>
+      <c r="AE28" s="162"/>
+      <c r="AF28" s="162"/>
+      <c r="AG28" s="162"/>
+      <c r="AH28" s="162"/>
+      <c r="AI28" s="162"/>
+      <c r="AJ28" s="162"/>
+      <c r="AK28" s="162"/>
+      <c r="AL28" s="162"/>
+      <c r="AM28" s="162"/>
+      <c r="AN28" s="162"/>
+      <c r="AO28" s="162"/>
+      <c r="AP28" s="162"/>
+      <c r="AQ28" s="162"/>
+      <c r="AR28" s="162"/>
+      <c r="AS28" s="162"/>
+      <c r="AT28" s="162"/>
+      <c r="AU28" s="162"/>
+      <c r="AV28" s="162"/>
+      <c r="AW28" s="162"/>
+      <c r="AX28" s="162"/>
+      <c r="AY28" s="124"/>
+      <c r="AZ28" s="124"/>
+      <c r="BA28" s="124"/>
+      <c r="BB28" s="124"/>
+      <c r="BC28" s="124"/>
+      <c r="BD28" s="124"/>
       <c r="BE28" s="25"/>
       <c r="BF28" s="25"/>
       <c r="BG28" s="25"/>
@@ -6604,71 +6604,71 @@
       <c r="DH28" s="25"/>
     </row>
     <row r="29" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="176"/>
-      <c r="B29" s="183" t="s">
+      <c r="A29" s="169"/>
+      <c r="B29" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="184">
+      <c r="C29" s="177">
         <v>0</v>
       </c>
-      <c r="D29" s="185">
+      <c r="D29" s="178">
         <v>44844</v>
       </c>
-      <c r="E29" s="185">
+      <c r="E29" s="178">
         <v>44844</v>
       </c>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="187"/>
-      <c r="P29" s="187"/>
-      <c r="Q29" s="187"/>
-      <c r="R29" s="187"/>
-      <c r="S29" s="187"/>
-      <c r="T29" s="187"/>
-      <c r="U29" s="187"/>
-      <c r="V29" s="187"/>
-      <c r="W29" s="187"/>
-      <c r="X29" s="188"/>
-      <c r="Y29" s="187"/>
-      <c r="Z29" s="187"/>
-      <c r="AA29" s="187"/>
-      <c r="AB29" s="187"/>
-      <c r="AC29" s="187"/>
-      <c r="AD29" s="187"/>
-      <c r="AE29" s="187"/>
-      <c r="AF29" s="187"/>
-      <c r="AG29" s="187"/>
-      <c r="AH29" s="187"/>
-      <c r="AI29" s="187"/>
-      <c r="AJ29" s="187"/>
-      <c r="AK29" s="187"/>
-      <c r="AL29" s="187"/>
-      <c r="AM29" s="187"/>
-      <c r="AN29" s="187"/>
-      <c r="AO29" s="187"/>
-      <c r="AP29" s="187"/>
-      <c r="AQ29" s="187"/>
-      <c r="AR29" s="187"/>
-      <c r="AS29" s="187"/>
-      <c r="AT29" s="187"/>
-      <c r="AU29" s="187"/>
-      <c r="AV29" s="187"/>
-      <c r="AW29" s="187"/>
-      <c r="AX29" s="187"/>
-      <c r="AY29" s="189"/>
-      <c r="AZ29" s="189"/>
-      <c r="BA29" s="189"/>
-      <c r="BB29" s="189"/>
-      <c r="BC29" s="189"/>
-      <c r="BD29" s="189"/>
-      <c r="BE29" s="189"/>
+      <c r="F29" s="179"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="180"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="180"/>
+      <c r="AA29" s="180"/>
+      <c r="AB29" s="180"/>
+      <c r="AC29" s="180"/>
+      <c r="AD29" s="180"/>
+      <c r="AE29" s="180"/>
+      <c r="AF29" s="180"/>
+      <c r="AG29" s="180"/>
+      <c r="AH29" s="180"/>
+      <c r="AI29" s="180"/>
+      <c r="AJ29" s="180"/>
+      <c r="AK29" s="180"/>
+      <c r="AL29" s="180"/>
+      <c r="AM29" s="180"/>
+      <c r="AN29" s="180"/>
+      <c r="AO29" s="180"/>
+      <c r="AP29" s="180"/>
+      <c r="AQ29" s="180"/>
+      <c r="AR29" s="180"/>
+      <c r="AS29" s="180"/>
+      <c r="AT29" s="180"/>
+      <c r="AU29" s="180"/>
+      <c r="AV29" s="180"/>
+      <c r="AW29" s="180"/>
+      <c r="AX29" s="180"/>
+      <c r="AY29" s="182"/>
+      <c r="AZ29" s="182"/>
+      <c r="BA29" s="182"/>
+      <c r="BB29" s="182"/>
+      <c r="BC29" s="182"/>
+      <c r="BD29" s="182"/>
+      <c r="BE29" s="182"/>
       <c r="BF29" s="25"/>
       <c r="BG29" s="25"/>
       <c r="BH29" s="25"/>
@@ -6726,71 +6726,71 @@
       <c r="DH29" s="25"/>
     </row>
     <row r="30" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="176"/>
-      <c r="B30" s="177" t="s">
+      <c r="A30" s="169"/>
+      <c r="B30" s="170" t="s">
         <v>143</v>
       </c>
-      <c r="C30" s="178">
+      <c r="C30" s="171">
         <v>0</v>
       </c>
-      <c r="D30" s="179">
+      <c r="D30" s="172">
         <v>44844</v>
       </c>
-      <c r="E30" s="179">
+      <c r="E30" s="172">
         <v>44844</v>
       </c>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181"/>
-      <c r="T30" s="181"/>
-      <c r="U30" s="181"/>
-      <c r="V30" s="181"/>
-      <c r="W30" s="181"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="181"/>
-      <c r="Z30" s="181"/>
-      <c r="AA30" s="181"/>
-      <c r="AB30" s="181"/>
-      <c r="AC30" s="181"/>
-      <c r="AD30" s="181"/>
-      <c r="AE30" s="181"/>
-      <c r="AF30" s="181"/>
-      <c r="AG30" s="181"/>
-      <c r="AH30" s="181"/>
-      <c r="AI30" s="181"/>
-      <c r="AJ30" s="181"/>
-      <c r="AK30" s="181"/>
-      <c r="AL30" s="181"/>
-      <c r="AM30" s="181"/>
-      <c r="AN30" s="181"/>
-      <c r="AO30" s="181"/>
-      <c r="AP30" s="181"/>
-      <c r="AQ30" s="181"/>
-      <c r="AR30" s="181"/>
-      <c r="AS30" s="181"/>
-      <c r="AT30" s="181"/>
-      <c r="AU30" s="181"/>
-      <c r="AV30" s="181"/>
-      <c r="AW30" s="181"/>
-      <c r="AX30" s="181"/>
-      <c r="AY30" s="181"/>
-      <c r="AZ30" s="181"/>
-      <c r="BA30" s="181"/>
-      <c r="BB30" s="181"/>
-      <c r="BC30" s="181"/>
-      <c r="BD30" s="181"/>
-      <c r="BE30" s="181"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="173"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="174"/>
+      <c r="L30" s="174"/>
+      <c r="M30" s="174"/>
+      <c r="N30" s="174"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="174"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="174"/>
+      <c r="S30" s="174"/>
+      <c r="T30" s="174"/>
+      <c r="U30" s="174"/>
+      <c r="V30" s="174"/>
+      <c r="W30" s="174"/>
+      <c r="X30" s="175"/>
+      <c r="Y30" s="174"/>
+      <c r="Z30" s="174"/>
+      <c r="AA30" s="174"/>
+      <c r="AB30" s="174"/>
+      <c r="AC30" s="174"/>
+      <c r="AD30" s="174"/>
+      <c r="AE30" s="174"/>
+      <c r="AF30" s="174"/>
+      <c r="AG30" s="174"/>
+      <c r="AH30" s="174"/>
+      <c r="AI30" s="174"/>
+      <c r="AJ30" s="174"/>
+      <c r="AK30" s="174"/>
+      <c r="AL30" s="174"/>
+      <c r="AM30" s="174"/>
+      <c r="AN30" s="174"/>
+      <c r="AO30" s="174"/>
+      <c r="AP30" s="174"/>
+      <c r="AQ30" s="174"/>
+      <c r="AR30" s="174"/>
+      <c r="AS30" s="174"/>
+      <c r="AT30" s="174"/>
+      <c r="AU30" s="174"/>
+      <c r="AV30" s="174"/>
+      <c r="AW30" s="174"/>
+      <c r="AX30" s="174"/>
+      <c r="AY30" s="174"/>
+      <c r="AZ30" s="174"/>
+      <c r="BA30" s="174"/>
+      <c r="BB30" s="174"/>
+      <c r="BC30" s="174"/>
+      <c r="BD30" s="174"/>
+      <c r="BE30" s="174"/>
       <c r="BF30" s="25"/>
       <c r="BG30" s="25"/>
       <c r="BH30" s="25"/>
@@ -6848,71 +6848,71 @@
       <c r="DH30" s="25"/>
     </row>
     <row r="31" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="176"/>
-      <c r="B31" s="177" t="s">
+      <c r="A31" s="169"/>
+      <c r="B31" s="170" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="178">
+      <c r="C31" s="171">
         <v>0</v>
       </c>
-      <c r="D31" s="179">
+      <c r="D31" s="172">
         <v>44844</v>
       </c>
-      <c r="E31" s="179">
+      <c r="E31" s="172">
         <v>44844</v>
       </c>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="181"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="181"/>
-      <c r="Z31" s="181"/>
-      <c r="AA31" s="181"/>
-      <c r="AB31" s="181"/>
-      <c r="AC31" s="181"/>
-      <c r="AD31" s="181"/>
-      <c r="AE31" s="181"/>
-      <c r="AF31" s="181"/>
-      <c r="AG31" s="181"/>
-      <c r="AH31" s="181"/>
-      <c r="AI31" s="181"/>
-      <c r="AJ31" s="181"/>
-      <c r="AK31" s="181"/>
-      <c r="AL31" s="181"/>
-      <c r="AM31" s="181"/>
-      <c r="AN31" s="181"/>
-      <c r="AO31" s="181"/>
-      <c r="AP31" s="181"/>
-      <c r="AQ31" s="181"/>
-      <c r="AR31" s="181"/>
-      <c r="AS31" s="181"/>
-      <c r="AT31" s="181"/>
-      <c r="AU31" s="181"/>
-      <c r="AV31" s="181"/>
-      <c r="AW31" s="181"/>
-      <c r="AX31" s="181"/>
-      <c r="AY31" s="181"/>
-      <c r="AZ31" s="181"/>
-      <c r="BA31" s="181"/>
-      <c r="BB31" s="181"/>
-      <c r="BC31" s="181"/>
-      <c r="BD31" s="181"/>
-      <c r="BE31" s="181"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="173"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="174"/>
+      <c r="K31" s="174"/>
+      <c r="L31" s="174"/>
+      <c r="M31" s="174"/>
+      <c r="N31" s="174"/>
+      <c r="O31" s="174"/>
+      <c r="P31" s="174"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="174"/>
+      <c r="S31" s="174"/>
+      <c r="T31" s="174"/>
+      <c r="U31" s="174"/>
+      <c r="V31" s="174"/>
+      <c r="W31" s="174"/>
+      <c r="X31" s="175"/>
+      <c r="Y31" s="174"/>
+      <c r="Z31" s="174"/>
+      <c r="AA31" s="174"/>
+      <c r="AB31" s="174"/>
+      <c r="AC31" s="174"/>
+      <c r="AD31" s="174"/>
+      <c r="AE31" s="174"/>
+      <c r="AF31" s="174"/>
+      <c r="AG31" s="174"/>
+      <c r="AH31" s="174"/>
+      <c r="AI31" s="174"/>
+      <c r="AJ31" s="174"/>
+      <c r="AK31" s="174"/>
+      <c r="AL31" s="174"/>
+      <c r="AM31" s="174"/>
+      <c r="AN31" s="174"/>
+      <c r="AO31" s="174"/>
+      <c r="AP31" s="174"/>
+      <c r="AQ31" s="174"/>
+      <c r="AR31" s="174"/>
+      <c r="AS31" s="174"/>
+      <c r="AT31" s="174"/>
+      <c r="AU31" s="174"/>
+      <c r="AV31" s="174"/>
+      <c r="AW31" s="174"/>
+      <c r="AX31" s="174"/>
+      <c r="AY31" s="174"/>
+      <c r="AZ31" s="174"/>
+      <c r="BA31" s="174"/>
+      <c r="BB31" s="174"/>
+      <c r="BC31" s="174"/>
+      <c r="BD31" s="174"/>
+      <c r="BE31" s="174"/>
       <c r="BF31" s="25"/>
       <c r="BG31" s="25"/>
       <c r="BH31" s="25"/>
@@ -6971,16 +6971,16 @@
     </row>
     <row r="32" spans="1:112" s="2" customFormat="1" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
-      <c r="B32" s="206" t="s">
+      <c r="B32" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="207">
+      <c r="C32" s="200">
         <v>0</v>
       </c>
-      <c r="D32" s="208">
+      <c r="D32" s="201">
         <v>44831</v>
       </c>
-      <c r="E32" s="208">
+      <c r="E32" s="201">
         <v>44840</v>
       </c>
       <c r="F32" s="44"/>
@@ -7031,9 +7031,9 @@
       <c r="AY32" s="45"/>
       <c r="AZ32" s="45"/>
       <c r="BA32" s="45"/>
-      <c r="BB32" s="131"/>
-      <c r="BC32" s="131"/>
-      <c r="BD32" s="131"/>
+      <c r="BB32" s="124"/>
+      <c r="BC32" s="124"/>
+      <c r="BD32" s="124"/>
       <c r="BE32" s="25"/>
       <c r="BF32" s="25"/>
       <c r="BG32" s="25"/>
@@ -7153,9 +7153,9 @@
       <c r="AY33" s="49"/>
       <c r="AZ33" s="49"/>
       <c r="BA33" s="49"/>
-      <c r="BB33" s="131"/>
-      <c r="BC33" s="131"/>
-      <c r="BD33" s="131"/>
+      <c r="BB33" s="124"/>
+      <c r="BC33" s="124"/>
+      <c r="BD33" s="124"/>
       <c r="BE33" s="25"/>
       <c r="BF33" s="25"/>
       <c r="BG33" s="25"/>
@@ -7275,9 +7275,9 @@
       <c r="AY34" s="49"/>
       <c r="AZ34" s="49"/>
       <c r="BA34" s="49"/>
-      <c r="BB34" s="131"/>
-      <c r="BC34" s="131"/>
-      <c r="BD34" s="131"/>
+      <c r="BB34" s="124"/>
+      <c r="BC34" s="124"/>
+      <c r="BD34" s="124"/>
       <c r="BE34" s="25"/>
       <c r="BF34" s="25"/>
       <c r="BG34" s="25"/>
@@ -7343,7 +7343,7 @@
       <c r="C35" s="18">
         <v>0</v>
       </c>
-      <c r="D35" s="132">
+      <c r="D35" s="125">
         <v>44832</v>
       </c>
       <c r="E35" s="20">
@@ -7397,9 +7397,9 @@
       <c r="AY35" s="49"/>
       <c r="AZ35" s="49"/>
       <c r="BA35" s="49"/>
-      <c r="BB35" s="131"/>
-      <c r="BC35" s="131"/>
-      <c r="BD35" s="131"/>
+      <c r="BB35" s="124"/>
+      <c r="BC35" s="124"/>
+      <c r="BD35" s="124"/>
       <c r="BE35" s="25"/>
       <c r="BF35" s="25"/>
       <c r="BG35" s="25"/>
@@ -7519,9 +7519,9 @@
       <c r="AY36" s="49"/>
       <c r="AZ36" s="49"/>
       <c r="BA36" s="49"/>
-      <c r="BB36" s="131"/>
-      <c r="BC36" s="131"/>
-      <c r="BD36" s="131"/>
+      <c r="BB36" s="124"/>
+      <c r="BC36" s="124"/>
+      <c r="BD36" s="124"/>
       <c r="BE36" s="25"/>
       <c r="BF36" s="25"/>
       <c r="BG36" s="25"/>
@@ -7641,9 +7641,9 @@
       <c r="AY37" s="49"/>
       <c r="AZ37" s="49"/>
       <c r="BA37" s="49"/>
-      <c r="BB37" s="131"/>
-      <c r="BC37" s="131"/>
-      <c r="BD37" s="131"/>
+      <c r="BB37" s="124"/>
+      <c r="BC37" s="124"/>
+      <c r="BD37" s="124"/>
       <c r="BE37" s="25"/>
       <c r="BF37" s="25"/>
       <c r="BG37" s="25"/>
@@ -7763,9 +7763,9 @@
       <c r="AY38" s="49"/>
       <c r="AZ38" s="49"/>
       <c r="BA38" s="49"/>
-      <c r="BB38" s="131"/>
-      <c r="BC38" s="131"/>
-      <c r="BD38" s="131"/>
+      <c r="BB38" s="124"/>
+      <c r="BC38" s="124"/>
+      <c r="BD38" s="124"/>
       <c r="BE38" s="25"/>
       <c r="BF38" s="25"/>
       <c r="BG38" s="25"/>
@@ -7885,9 +7885,9 @@
       <c r="AY39" s="49"/>
       <c r="AZ39" s="49"/>
       <c r="BA39" s="49"/>
-      <c r="BB39" s="131"/>
-      <c r="BC39" s="131"/>
-      <c r="BD39" s="131"/>
+      <c r="BB39" s="124"/>
+      <c r="BC39" s="124"/>
+      <c r="BD39" s="124"/>
       <c r="BE39" s="25"/>
       <c r="BF39" s="25"/>
       <c r="BG39" s="25"/>
@@ -8007,9 +8007,9 @@
       <c r="AY40" s="49"/>
       <c r="AZ40" s="49"/>
       <c r="BA40" s="49"/>
-      <c r="BB40" s="131"/>
-      <c r="BC40" s="131"/>
-      <c r="BD40" s="131"/>
+      <c r="BB40" s="124"/>
+      <c r="BC40" s="124"/>
+      <c r="BD40" s="124"/>
       <c r="BE40" s="25"/>
       <c r="BF40" s="25"/>
       <c r="BG40" s="25"/>
@@ -8129,9 +8129,9 @@
       <c r="AY41" s="49"/>
       <c r="AZ41" s="49"/>
       <c r="BA41" s="49"/>
-      <c r="BB41" s="131"/>
-      <c r="BC41" s="131"/>
-      <c r="BD41" s="131"/>
+      <c r="BB41" s="124"/>
+      <c r="BC41" s="124"/>
+      <c r="BD41" s="124"/>
       <c r="BE41" s="25"/>
       <c r="BF41" s="25"/>
       <c r="BG41" s="25"/>
@@ -8251,9 +8251,9 @@
       <c r="AY42" s="49"/>
       <c r="AZ42" s="49"/>
       <c r="BA42" s="49"/>
-      <c r="BB42" s="131"/>
-      <c r="BC42" s="131"/>
-      <c r="BD42" s="131"/>
+      <c r="BB42" s="124"/>
+      <c r="BC42" s="124"/>
+      <c r="BD42" s="124"/>
       <c r="BE42" s="25"/>
       <c r="BF42" s="25"/>
       <c r="BG42" s="25"/>
@@ -8373,9 +8373,9 @@
       <c r="AY43" s="49"/>
       <c r="AZ43" s="49"/>
       <c r="BA43" s="49"/>
-      <c r="BB43" s="131"/>
-      <c r="BC43" s="131"/>
-      <c r="BD43" s="131"/>
+      <c r="BB43" s="124"/>
+      <c r="BC43" s="124"/>
+      <c r="BD43" s="124"/>
       <c r="BE43" s="25"/>
       <c r="BF43" s="25"/>
       <c r="BG43" s="25"/>
@@ -8495,9 +8495,9 @@
       <c r="AY44" s="49"/>
       <c r="AZ44" s="49"/>
       <c r="BA44" s="49"/>
-      <c r="BB44" s="131"/>
-      <c r="BC44" s="131"/>
-      <c r="BD44" s="131"/>
+      <c r="BB44" s="124"/>
+      <c r="BC44" s="124"/>
+      <c r="BD44" s="124"/>
       <c r="BE44" s="25"/>
       <c r="BF44" s="25"/>
       <c r="BG44" s="25"/>
@@ -8617,9 +8617,9 @@
       <c r="AY45" s="49"/>
       <c r="AZ45" s="49"/>
       <c r="BA45" s="49"/>
-      <c r="BB45" s="131"/>
-      <c r="BC45" s="131"/>
-      <c r="BD45" s="131"/>
+      <c r="BB45" s="124"/>
+      <c r="BC45" s="124"/>
+      <c r="BD45" s="124"/>
       <c r="BE45" s="25"/>
       <c r="BF45" s="25"/>
       <c r="BG45" s="25"/>
@@ -8739,9 +8739,9 @@
       <c r="AY46" s="49"/>
       <c r="AZ46" s="49"/>
       <c r="BA46" s="49"/>
-      <c r="BB46" s="131"/>
-      <c r="BC46" s="131"/>
-      <c r="BD46" s="131"/>
+      <c r="BB46" s="124"/>
+      <c r="BC46" s="124"/>
+      <c r="BD46" s="124"/>
       <c r="BE46" s="25"/>
       <c r="BF46" s="25"/>
       <c r="BG46" s="25"/>
@@ -8861,9 +8861,9 @@
       <c r="AY47" s="49"/>
       <c r="AZ47" s="49"/>
       <c r="BA47" s="49"/>
-      <c r="BB47" s="131"/>
-      <c r="BC47" s="131"/>
-      <c r="BD47" s="131"/>
+      <c r="BB47" s="124"/>
+      <c r="BC47" s="124"/>
+      <c r="BD47" s="124"/>
       <c r="BE47" s="25"/>
       <c r="BF47" s="25"/>
       <c r="BG47" s="25"/>
@@ -8983,9 +8983,9 @@
       <c r="AY48" s="49"/>
       <c r="AZ48" s="49"/>
       <c r="BA48" s="49"/>
-      <c r="BB48" s="131"/>
-      <c r="BC48" s="131"/>
-      <c r="BD48" s="131"/>
+      <c r="BB48" s="124"/>
+      <c r="BC48" s="124"/>
+      <c r="BD48" s="124"/>
       <c r="BE48" s="25"/>
       <c r="BF48" s="25"/>
       <c r="BG48" s="25"/>
@@ -9105,9 +9105,9 @@
       <c r="AY49" s="49"/>
       <c r="AZ49" s="49"/>
       <c r="BA49" s="49"/>
-      <c r="BB49" s="131"/>
-      <c r="BC49" s="131"/>
-      <c r="BD49" s="131"/>
+      <c r="BB49" s="124"/>
+      <c r="BC49" s="124"/>
+      <c r="BD49" s="124"/>
       <c r="BE49" s="25"/>
       <c r="BF49" s="25"/>
       <c r="BG49" s="25"/>
@@ -9227,9 +9227,9 @@
       <c r="AY50" s="49"/>
       <c r="AZ50" s="49"/>
       <c r="BA50" s="49"/>
-      <c r="BB50" s="131"/>
-      <c r="BC50" s="131"/>
-      <c r="BD50" s="131"/>
+      <c r="BB50" s="124"/>
+      <c r="BC50" s="124"/>
+      <c r="BD50" s="124"/>
       <c r="BE50" s="25"/>
       <c r="BF50" s="25"/>
       <c r="BG50" s="25"/>
@@ -9289,76 +9289,76 @@
     </row>
     <row r="51" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
-      <c r="B51" s="203" t="s">
+      <c r="B51" s="196" t="s">
         <v>140</v>
       </c>
-      <c r="C51" s="204">
+      <c r="C51" s="197">
         <v>0</v>
       </c>
-      <c r="D51" s="205">
+      <c r="D51" s="198">
         <v>44846</v>
       </c>
-      <c r="E51" s="205">
+      <c r="E51" s="198">
         <v>44848</v>
       </c>
-      <c r="F51" s="200"/>
-      <c r="G51" s="200"/>
-      <c r="H51" s="201"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="201" t="s">
+      <c r="F51" s="193"/>
+      <c r="G51" s="193"/>
+      <c r="H51" s="194"/>
+      <c r="I51" s="194"/>
+      <c r="J51" s="194"/>
+      <c r="K51" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="L51" s="201"/>
-      <c r="M51" s="201"/>
-      <c r="N51" s="201"/>
-      <c r="O51" s="201"/>
-      <c r="P51" s="201"/>
-      <c r="Q51" s="201"/>
-      <c r="R51" s="201"/>
-      <c r="S51" s="201"/>
-      <c r="T51" s="201"/>
-      <c r="U51" s="201"/>
-      <c r="V51" s="201"/>
-      <c r="W51" s="201"/>
-      <c r="X51" s="202"/>
-      <c r="Y51" s="201"/>
-      <c r="Z51" s="201"/>
-      <c r="AA51" s="201"/>
-      <c r="AB51" s="201"/>
-      <c r="AC51" s="201"/>
-      <c r="AD51" s="201"/>
-      <c r="AE51" s="201"/>
-      <c r="AF51" s="201"/>
-      <c r="AG51" s="201"/>
-      <c r="AH51" s="201"/>
-      <c r="AI51" s="201"/>
-      <c r="AJ51" s="201"/>
-      <c r="AK51" s="201"/>
-      <c r="AL51" s="201"/>
-      <c r="AM51" s="201"/>
-      <c r="AN51" s="201"/>
-      <c r="AO51" s="201"/>
-      <c r="AP51" s="201"/>
-      <c r="AQ51" s="201"/>
-      <c r="AR51" s="201"/>
-      <c r="AS51" s="201"/>
-      <c r="AT51" s="201"/>
-      <c r="AU51" s="201"/>
-      <c r="AV51" s="201"/>
-      <c r="AW51" s="201"/>
-      <c r="AX51" s="201"/>
-      <c r="AY51" s="201"/>
-      <c r="AZ51" s="201"/>
-      <c r="BA51" s="201"/>
-      <c r="BB51" s="201"/>
-      <c r="BC51" s="201"/>
-      <c r="BD51" s="201"/>
-      <c r="BE51" s="201"/>
-      <c r="BF51" s="201"/>
-      <c r="BG51" s="201"/>
-      <c r="BH51" s="201"/>
-      <c r="BI51" s="201"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="194"/>
+      <c r="O51" s="194"/>
+      <c r="P51" s="194"/>
+      <c r="Q51" s="194"/>
+      <c r="R51" s="194"/>
+      <c r="S51" s="194"/>
+      <c r="T51" s="194"/>
+      <c r="U51" s="194"/>
+      <c r="V51" s="194"/>
+      <c r="W51" s="194"/>
+      <c r="X51" s="195"/>
+      <c r="Y51" s="194"/>
+      <c r="Z51" s="194"/>
+      <c r="AA51" s="194"/>
+      <c r="AB51" s="194"/>
+      <c r="AC51" s="194"/>
+      <c r="AD51" s="194"/>
+      <c r="AE51" s="194"/>
+      <c r="AF51" s="194"/>
+      <c r="AG51" s="194"/>
+      <c r="AH51" s="194"/>
+      <c r="AI51" s="194"/>
+      <c r="AJ51" s="194"/>
+      <c r="AK51" s="194"/>
+      <c r="AL51" s="194"/>
+      <c r="AM51" s="194"/>
+      <c r="AN51" s="194"/>
+      <c r="AO51" s="194"/>
+      <c r="AP51" s="194"/>
+      <c r="AQ51" s="194"/>
+      <c r="AR51" s="194"/>
+      <c r="AS51" s="194"/>
+      <c r="AT51" s="194"/>
+      <c r="AU51" s="194"/>
+      <c r="AV51" s="194"/>
+      <c r="AW51" s="194"/>
+      <c r="AX51" s="194"/>
+      <c r="AY51" s="194"/>
+      <c r="AZ51" s="194"/>
+      <c r="BA51" s="194"/>
+      <c r="BB51" s="194"/>
+      <c r="BC51" s="194"/>
+      <c r="BD51" s="194"/>
+      <c r="BE51" s="194"/>
+      <c r="BF51" s="194"/>
+      <c r="BG51" s="194"/>
+      <c r="BH51" s="194"/>
+      <c r="BI51" s="194"/>
       <c r="BJ51" s="25"/>
       <c r="BK51" s="25"/>
       <c r="BL51" s="25"/>
@@ -9413,74 +9413,74 @@
     </row>
     <row r="52" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
-      <c r="B52" s="190" t="s">
+      <c r="B52" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="191">
+      <c r="C52" s="184">
         <v>0</v>
       </c>
-      <c r="D52" s="192">
+      <c r="D52" s="185">
         <v>44846</v>
       </c>
-      <c r="E52" s="192">
+      <c r="E52" s="185">
         <v>44846</v>
       </c>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="194"/>
-      <c r="K52" s="194"/>
-      <c r="L52" s="194"/>
-      <c r="M52" s="194"/>
-      <c r="N52" s="194"/>
-      <c r="O52" s="194"/>
-      <c r="P52" s="194"/>
-      <c r="Q52" s="194"/>
-      <c r="R52" s="194"/>
-      <c r="S52" s="194"/>
-      <c r="T52" s="194"/>
-      <c r="U52" s="194"/>
-      <c r="V52" s="194"/>
-      <c r="W52" s="194"/>
-      <c r="X52" s="195"/>
-      <c r="Y52" s="194"/>
-      <c r="Z52" s="194"/>
-      <c r="AA52" s="194"/>
-      <c r="AB52" s="194"/>
-      <c r="AC52" s="194"/>
-      <c r="AD52" s="194"/>
-      <c r="AE52" s="194"/>
-      <c r="AF52" s="194"/>
-      <c r="AG52" s="194"/>
-      <c r="AH52" s="194"/>
-      <c r="AI52" s="194"/>
-      <c r="AJ52" s="194"/>
-      <c r="AK52" s="194"/>
-      <c r="AL52" s="194"/>
-      <c r="AM52" s="194"/>
-      <c r="AN52" s="194"/>
-      <c r="AO52" s="194"/>
-      <c r="AP52" s="194"/>
-      <c r="AQ52" s="194"/>
-      <c r="AR52" s="194"/>
-      <c r="AS52" s="194"/>
-      <c r="AT52" s="194"/>
-      <c r="AU52" s="194"/>
-      <c r="AV52" s="194"/>
-      <c r="AW52" s="194"/>
-      <c r="AX52" s="194"/>
-      <c r="AY52" s="194"/>
-      <c r="AZ52" s="194"/>
-      <c r="BA52" s="194"/>
-      <c r="BB52" s="194"/>
-      <c r="BC52" s="194"/>
-      <c r="BD52" s="194"/>
-      <c r="BE52" s="194"/>
-      <c r="BF52" s="194"/>
-      <c r="BG52" s="194"/>
-      <c r="BH52" s="194"/>
-      <c r="BI52" s="194"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="187"/>
+      <c r="I52" s="187"/>
+      <c r="J52" s="187"/>
+      <c r="K52" s="187"/>
+      <c r="L52" s="187"/>
+      <c r="M52" s="187"/>
+      <c r="N52" s="187"/>
+      <c r="O52" s="187"/>
+      <c r="P52" s="187"/>
+      <c r="Q52" s="187"/>
+      <c r="R52" s="187"/>
+      <c r="S52" s="187"/>
+      <c r="T52" s="187"/>
+      <c r="U52" s="187"/>
+      <c r="V52" s="187"/>
+      <c r="W52" s="187"/>
+      <c r="X52" s="188"/>
+      <c r="Y52" s="187"/>
+      <c r="Z52" s="187"/>
+      <c r="AA52" s="187"/>
+      <c r="AB52" s="187"/>
+      <c r="AC52" s="187"/>
+      <c r="AD52" s="187"/>
+      <c r="AE52" s="187"/>
+      <c r="AF52" s="187"/>
+      <c r="AG52" s="187"/>
+      <c r="AH52" s="187"/>
+      <c r="AI52" s="187"/>
+      <c r="AJ52" s="187"/>
+      <c r="AK52" s="187"/>
+      <c r="AL52" s="187"/>
+      <c r="AM52" s="187"/>
+      <c r="AN52" s="187"/>
+      <c r="AO52" s="187"/>
+      <c r="AP52" s="187"/>
+      <c r="AQ52" s="187"/>
+      <c r="AR52" s="187"/>
+      <c r="AS52" s="187"/>
+      <c r="AT52" s="187"/>
+      <c r="AU52" s="187"/>
+      <c r="AV52" s="187"/>
+      <c r="AW52" s="187"/>
+      <c r="AX52" s="187"/>
+      <c r="AY52" s="187"/>
+      <c r="AZ52" s="187"/>
+      <c r="BA52" s="187"/>
+      <c r="BB52" s="187"/>
+      <c r="BC52" s="187"/>
+      <c r="BD52" s="187"/>
+      <c r="BE52" s="187"/>
+      <c r="BF52" s="187"/>
+      <c r="BG52" s="187"/>
+      <c r="BH52" s="187"/>
+      <c r="BI52" s="187"/>
       <c r="BJ52" s="25"/>
       <c r="BK52" s="25"/>
       <c r="BL52" s="25"/>
@@ -9535,74 +9535,74 @@
     </row>
     <row r="53" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17"/>
-      <c r="B53" s="196" t="s">
+      <c r="B53" s="189" t="s">
         <v>146</v>
       </c>
-      <c r="C53" s="197">
+      <c r="C53" s="190">
         <v>0</v>
       </c>
-      <c r="D53" s="192">
+      <c r="D53" s="185">
         <v>44846</v>
       </c>
-      <c r="E53" s="192">
+      <c r="E53" s="185">
         <v>44847</v>
       </c>
-      <c r="F53" s="193"/>
-      <c r="G53" s="193"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="194"/>
-      <c r="J53" s="194"/>
-      <c r="K53" s="194"/>
-      <c r="L53" s="194"/>
-      <c r="M53" s="194"/>
-      <c r="N53" s="194"/>
-      <c r="O53" s="194"/>
-      <c r="P53" s="194"/>
-      <c r="Q53" s="194"/>
-      <c r="R53" s="194"/>
-      <c r="S53" s="194"/>
-      <c r="T53" s="194"/>
-      <c r="U53" s="194"/>
-      <c r="V53" s="194"/>
-      <c r="W53" s="194"/>
-      <c r="X53" s="195"/>
-      <c r="Y53" s="194"/>
-      <c r="Z53" s="194"/>
-      <c r="AA53" s="194"/>
-      <c r="AB53" s="194"/>
-      <c r="AC53" s="194"/>
-      <c r="AD53" s="194"/>
-      <c r="AE53" s="194"/>
-      <c r="AF53" s="194"/>
-      <c r="AG53" s="194"/>
-      <c r="AH53" s="194"/>
-      <c r="AI53" s="194"/>
-      <c r="AJ53" s="194"/>
-      <c r="AK53" s="194"/>
-      <c r="AL53" s="194"/>
-      <c r="AM53" s="194"/>
-      <c r="AN53" s="194"/>
-      <c r="AO53" s="194"/>
-      <c r="AP53" s="194"/>
-      <c r="AQ53" s="194"/>
-      <c r="AR53" s="194"/>
-      <c r="AS53" s="194"/>
-      <c r="AT53" s="194"/>
-      <c r="AU53" s="194"/>
-      <c r="AV53" s="194"/>
-      <c r="AW53" s="194"/>
-      <c r="AX53" s="194"/>
-      <c r="AY53" s="194"/>
-      <c r="AZ53" s="194"/>
-      <c r="BA53" s="194"/>
-      <c r="BB53" s="194"/>
-      <c r="BC53" s="194"/>
-      <c r="BD53" s="194"/>
-      <c r="BE53" s="194"/>
-      <c r="BF53" s="194"/>
-      <c r="BG53" s="194"/>
-      <c r="BH53" s="194"/>
-      <c r="BI53" s="194"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="H53" s="187"/>
+      <c r="I53" s="187"/>
+      <c r="J53" s="187"/>
+      <c r="K53" s="187"/>
+      <c r="L53" s="187"/>
+      <c r="M53" s="187"/>
+      <c r="N53" s="187"/>
+      <c r="O53" s="187"/>
+      <c r="P53" s="187"/>
+      <c r="Q53" s="187"/>
+      <c r="R53" s="187"/>
+      <c r="S53" s="187"/>
+      <c r="T53" s="187"/>
+      <c r="U53" s="187"/>
+      <c r="V53" s="187"/>
+      <c r="W53" s="187"/>
+      <c r="X53" s="188"/>
+      <c r="Y53" s="187"/>
+      <c r="Z53" s="187"/>
+      <c r="AA53" s="187"/>
+      <c r="AB53" s="187"/>
+      <c r="AC53" s="187"/>
+      <c r="AD53" s="187"/>
+      <c r="AE53" s="187"/>
+      <c r="AF53" s="187"/>
+      <c r="AG53" s="187"/>
+      <c r="AH53" s="187"/>
+      <c r="AI53" s="187"/>
+      <c r="AJ53" s="187"/>
+      <c r="AK53" s="187"/>
+      <c r="AL53" s="187"/>
+      <c r="AM53" s="187"/>
+      <c r="AN53" s="187"/>
+      <c r="AO53" s="187"/>
+      <c r="AP53" s="187"/>
+      <c r="AQ53" s="187"/>
+      <c r="AR53" s="187"/>
+      <c r="AS53" s="187"/>
+      <c r="AT53" s="187"/>
+      <c r="AU53" s="187"/>
+      <c r="AV53" s="187"/>
+      <c r="AW53" s="187"/>
+      <c r="AX53" s="187"/>
+      <c r="AY53" s="187"/>
+      <c r="AZ53" s="187"/>
+      <c r="BA53" s="187"/>
+      <c r="BB53" s="187"/>
+      <c r="BC53" s="187"/>
+      <c r="BD53" s="187"/>
+      <c r="BE53" s="187"/>
+      <c r="BF53" s="187"/>
+      <c r="BG53" s="187"/>
+      <c r="BH53" s="187"/>
+      <c r="BI53" s="187"/>
       <c r="BJ53" s="25"/>
       <c r="BK53" s="25"/>
       <c r="BL53" s="25"/>
@@ -9657,74 +9657,74 @@
     </row>
     <row r="54" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="17"/>
-      <c r="B54" s="196" t="s">
+      <c r="B54" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="C54" s="197">
+      <c r="C54" s="190">
         <v>0</v>
       </c>
-      <c r="D54" s="192">
+      <c r="D54" s="185">
         <v>44847</v>
       </c>
-      <c r="E54" s="192">
+      <c r="E54" s="185">
         <v>44847</v>
       </c>
-      <c r="F54" s="193"/>
-      <c r="G54" s="193"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="194"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="194"/>
-      <c r="L54" s="194"/>
-      <c r="M54" s="194"/>
-      <c r="N54" s="194"/>
-      <c r="O54" s="194"/>
-      <c r="P54" s="194"/>
-      <c r="Q54" s="194"/>
-      <c r="R54" s="194"/>
-      <c r="S54" s="194"/>
-      <c r="T54" s="194"/>
-      <c r="U54" s="194"/>
-      <c r="V54" s="194"/>
-      <c r="W54" s="194"/>
-      <c r="X54" s="195"/>
-      <c r="Y54" s="194"/>
-      <c r="Z54" s="194"/>
-      <c r="AA54" s="194"/>
-      <c r="AB54" s="194"/>
-      <c r="AC54" s="194"/>
-      <c r="AD54" s="194"/>
-      <c r="AE54" s="194"/>
-      <c r="AF54" s="194"/>
-      <c r="AG54" s="194"/>
-      <c r="AH54" s="194"/>
-      <c r="AI54" s="194"/>
-      <c r="AJ54" s="194"/>
-      <c r="AK54" s="194"/>
-      <c r="AL54" s="194"/>
-      <c r="AM54" s="194"/>
-      <c r="AN54" s="194"/>
-      <c r="AO54" s="194"/>
-      <c r="AP54" s="194"/>
-      <c r="AQ54" s="194"/>
-      <c r="AR54" s="194"/>
-      <c r="AS54" s="194"/>
-      <c r="AT54" s="194"/>
-      <c r="AU54" s="194"/>
-      <c r="AV54" s="194"/>
-      <c r="AW54" s="194"/>
-      <c r="AX54" s="194"/>
-      <c r="AY54" s="194"/>
-      <c r="AZ54" s="194"/>
-      <c r="BA54" s="194"/>
-      <c r="BB54" s="194"/>
-      <c r="BC54" s="194"/>
-      <c r="BD54" s="194"/>
-      <c r="BE54" s="194"/>
-      <c r="BF54" s="194"/>
-      <c r="BG54" s="194"/>
-      <c r="BH54" s="194"/>
-      <c r="BI54" s="194"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="186"/>
+      <c r="H54" s="187"/>
+      <c r="I54" s="187"/>
+      <c r="J54" s="187"/>
+      <c r="K54" s="187"/>
+      <c r="L54" s="187"/>
+      <c r="M54" s="187"/>
+      <c r="N54" s="187"/>
+      <c r="O54" s="187"/>
+      <c r="P54" s="187"/>
+      <c r="Q54" s="187"/>
+      <c r="R54" s="187"/>
+      <c r="S54" s="187"/>
+      <c r="T54" s="187"/>
+      <c r="U54" s="187"/>
+      <c r="V54" s="187"/>
+      <c r="W54" s="187"/>
+      <c r="X54" s="188"/>
+      <c r="Y54" s="187"/>
+      <c r="Z54" s="187"/>
+      <c r="AA54" s="187"/>
+      <c r="AB54" s="187"/>
+      <c r="AC54" s="187"/>
+      <c r="AD54" s="187"/>
+      <c r="AE54" s="187"/>
+      <c r="AF54" s="187"/>
+      <c r="AG54" s="187"/>
+      <c r="AH54" s="187"/>
+      <c r="AI54" s="187"/>
+      <c r="AJ54" s="187"/>
+      <c r="AK54" s="187"/>
+      <c r="AL54" s="187"/>
+      <c r="AM54" s="187"/>
+      <c r="AN54" s="187"/>
+      <c r="AO54" s="187"/>
+      <c r="AP54" s="187"/>
+      <c r="AQ54" s="187"/>
+      <c r="AR54" s="187"/>
+      <c r="AS54" s="187"/>
+      <c r="AT54" s="187"/>
+      <c r="AU54" s="187"/>
+      <c r="AV54" s="187"/>
+      <c r="AW54" s="187"/>
+      <c r="AX54" s="187"/>
+      <c r="AY54" s="187"/>
+      <c r="AZ54" s="187"/>
+      <c r="BA54" s="187"/>
+      <c r="BB54" s="187"/>
+      <c r="BC54" s="187"/>
+      <c r="BD54" s="187"/>
+      <c r="BE54" s="187"/>
+      <c r="BF54" s="187"/>
+      <c r="BG54" s="187"/>
+      <c r="BH54" s="187"/>
+      <c r="BI54" s="187"/>
       <c r="BJ54" s="25"/>
       <c r="BK54" s="25"/>
       <c r="BL54" s="25"/>
@@ -9779,74 +9779,74 @@
     </row>
     <row r="55" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
-      <c r="B55" s="196" t="s">
+      <c r="B55" s="189" t="s">
         <v>148</v>
       </c>
-      <c r="C55" s="197">
+      <c r="C55" s="190">
         <v>0</v>
       </c>
-      <c r="D55" s="192">
+      <c r="D55" s="185">
         <v>44848</v>
       </c>
-      <c r="E55" s="192">
+      <c r="E55" s="185">
         <v>44848</v>
       </c>
-      <c r="F55" s="193"/>
-      <c r="G55" s="193"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="194"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="194"/>
-      <c r="L55" s="194"/>
-      <c r="M55" s="194"/>
-      <c r="N55" s="194"/>
-      <c r="O55" s="194"/>
-      <c r="P55" s="194"/>
-      <c r="Q55" s="194"/>
-      <c r="R55" s="194"/>
-      <c r="S55" s="194"/>
-      <c r="T55" s="194"/>
-      <c r="U55" s="194"/>
-      <c r="V55" s="194"/>
-      <c r="W55" s="194"/>
-      <c r="X55" s="195"/>
-      <c r="Y55" s="194"/>
-      <c r="Z55" s="194"/>
-      <c r="AA55" s="194"/>
-      <c r="AB55" s="194"/>
-      <c r="AC55" s="194"/>
-      <c r="AD55" s="194"/>
-      <c r="AE55" s="194"/>
-      <c r="AF55" s="194"/>
-      <c r="AG55" s="194"/>
-      <c r="AH55" s="194"/>
-      <c r="AI55" s="194"/>
-      <c r="AJ55" s="194"/>
-      <c r="AK55" s="194"/>
-      <c r="AL55" s="194"/>
-      <c r="AM55" s="194"/>
-      <c r="AN55" s="194"/>
-      <c r="AO55" s="194"/>
-      <c r="AP55" s="194"/>
-      <c r="AQ55" s="194"/>
-      <c r="AR55" s="194"/>
-      <c r="AS55" s="194"/>
-      <c r="AT55" s="194"/>
-      <c r="AU55" s="194"/>
-      <c r="AV55" s="194"/>
-      <c r="AW55" s="194"/>
-      <c r="AX55" s="194"/>
-      <c r="AY55" s="194"/>
-      <c r="AZ55" s="194"/>
-      <c r="BA55" s="194"/>
-      <c r="BB55" s="194"/>
-      <c r="BC55" s="194"/>
-      <c r="BD55" s="194"/>
-      <c r="BE55" s="194"/>
-      <c r="BF55" s="194"/>
-      <c r="BG55" s="194"/>
-      <c r="BH55" s="194"/>
-      <c r="BI55" s="194"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="186"/>
+      <c r="H55" s="187"/>
+      <c r="I55" s="187"/>
+      <c r="J55" s="187"/>
+      <c r="K55" s="187"/>
+      <c r="L55" s="187"/>
+      <c r="M55" s="187"/>
+      <c r="N55" s="187"/>
+      <c r="O55" s="187"/>
+      <c r="P55" s="187"/>
+      <c r="Q55" s="187"/>
+      <c r="R55" s="187"/>
+      <c r="S55" s="187"/>
+      <c r="T55" s="187"/>
+      <c r="U55" s="187"/>
+      <c r="V55" s="187"/>
+      <c r="W55" s="187"/>
+      <c r="X55" s="188"/>
+      <c r="Y55" s="187"/>
+      <c r="Z55" s="187"/>
+      <c r="AA55" s="187"/>
+      <c r="AB55" s="187"/>
+      <c r="AC55" s="187"/>
+      <c r="AD55" s="187"/>
+      <c r="AE55" s="187"/>
+      <c r="AF55" s="187"/>
+      <c r="AG55" s="187"/>
+      <c r="AH55" s="187"/>
+      <c r="AI55" s="187"/>
+      <c r="AJ55" s="187"/>
+      <c r="AK55" s="187"/>
+      <c r="AL55" s="187"/>
+      <c r="AM55" s="187"/>
+      <c r="AN55" s="187"/>
+      <c r="AO55" s="187"/>
+      <c r="AP55" s="187"/>
+      <c r="AQ55" s="187"/>
+      <c r="AR55" s="187"/>
+      <c r="AS55" s="187"/>
+      <c r="AT55" s="187"/>
+      <c r="AU55" s="187"/>
+      <c r="AV55" s="187"/>
+      <c r="AW55" s="187"/>
+      <c r="AX55" s="187"/>
+      <c r="AY55" s="187"/>
+      <c r="AZ55" s="187"/>
+      <c r="BA55" s="187"/>
+      <c r="BB55" s="187"/>
+      <c r="BC55" s="187"/>
+      <c r="BD55" s="187"/>
+      <c r="BE55" s="187"/>
+      <c r="BF55" s="187"/>
+      <c r="BG55" s="187"/>
+      <c r="BH55" s="187"/>
+      <c r="BI55" s="187"/>
       <c r="BJ55" s="25"/>
       <c r="BK55" s="25"/>
       <c r="BL55" s="25"/>
@@ -9901,74 +9901,74 @@
     </row>
     <row r="56" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
-      <c r="B56" s="198" t="s">
+      <c r="B56" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="C56" s="199">
+      <c r="C56" s="192">
         <v>0</v>
       </c>
-      <c r="D56" s="192">
+      <c r="D56" s="185">
         <v>44848</v>
       </c>
-      <c r="E56" s="192">
+      <c r="E56" s="185">
         <v>44848</v>
       </c>
-      <c r="F56" s="193"/>
-      <c r="G56" s="193"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="194"/>
-      <c r="K56" s="194"/>
-      <c r="L56" s="194"/>
-      <c r="M56" s="194"/>
-      <c r="N56" s="194"/>
-      <c r="O56" s="194"/>
-      <c r="P56" s="194"/>
-      <c r="Q56" s="194"/>
-      <c r="R56" s="194"/>
-      <c r="S56" s="194"/>
-      <c r="T56" s="194"/>
-      <c r="U56" s="194"/>
-      <c r="V56" s="194"/>
-      <c r="W56" s="194"/>
-      <c r="X56" s="195"/>
-      <c r="Y56" s="194"/>
-      <c r="Z56" s="194"/>
-      <c r="AA56" s="194"/>
-      <c r="AB56" s="194"/>
-      <c r="AC56" s="194"/>
-      <c r="AD56" s="194"/>
-      <c r="AE56" s="194"/>
-      <c r="AF56" s="194"/>
-      <c r="AG56" s="194"/>
-      <c r="AH56" s="194"/>
-      <c r="AI56" s="194"/>
-      <c r="AJ56" s="194"/>
-      <c r="AK56" s="194"/>
-      <c r="AL56" s="194"/>
-      <c r="AM56" s="194"/>
-      <c r="AN56" s="194"/>
-      <c r="AO56" s="194"/>
-      <c r="AP56" s="194"/>
-      <c r="AQ56" s="194"/>
-      <c r="AR56" s="194"/>
-      <c r="AS56" s="194"/>
-      <c r="AT56" s="194"/>
-      <c r="AU56" s="194"/>
-      <c r="AV56" s="194"/>
-      <c r="AW56" s="194"/>
-      <c r="AX56" s="194"/>
-      <c r="AY56" s="194"/>
-      <c r="AZ56" s="194"/>
-      <c r="BA56" s="194"/>
-      <c r="BB56" s="194"/>
-      <c r="BC56" s="194"/>
-      <c r="BD56" s="194"/>
-      <c r="BE56" s="194"/>
-      <c r="BF56" s="194"/>
-      <c r="BG56" s="194"/>
-      <c r="BH56" s="194"/>
-      <c r="BI56" s="194"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="187"/>
+      <c r="I56" s="187"/>
+      <c r="J56" s="187"/>
+      <c r="K56" s="187"/>
+      <c r="L56" s="187"/>
+      <c r="M56" s="187"/>
+      <c r="N56" s="187"/>
+      <c r="O56" s="187"/>
+      <c r="P56" s="187"/>
+      <c r="Q56" s="187"/>
+      <c r="R56" s="187"/>
+      <c r="S56" s="187"/>
+      <c r="T56" s="187"/>
+      <c r="U56" s="187"/>
+      <c r="V56" s="187"/>
+      <c r="W56" s="187"/>
+      <c r="X56" s="188"/>
+      <c r="Y56" s="187"/>
+      <c r="Z56" s="187"/>
+      <c r="AA56" s="187"/>
+      <c r="AB56" s="187"/>
+      <c r="AC56" s="187"/>
+      <c r="AD56" s="187"/>
+      <c r="AE56" s="187"/>
+      <c r="AF56" s="187"/>
+      <c r="AG56" s="187"/>
+      <c r="AH56" s="187"/>
+      <c r="AI56" s="187"/>
+      <c r="AJ56" s="187"/>
+      <c r="AK56" s="187"/>
+      <c r="AL56" s="187"/>
+      <c r="AM56" s="187"/>
+      <c r="AN56" s="187"/>
+      <c r="AO56" s="187"/>
+      <c r="AP56" s="187"/>
+      <c r="AQ56" s="187"/>
+      <c r="AR56" s="187"/>
+      <c r="AS56" s="187"/>
+      <c r="AT56" s="187"/>
+      <c r="AU56" s="187"/>
+      <c r="AV56" s="187"/>
+      <c r="AW56" s="187"/>
+      <c r="AX56" s="187"/>
+      <c r="AY56" s="187"/>
+      <c r="AZ56" s="187"/>
+      <c r="BA56" s="187"/>
+      <c r="BB56" s="187"/>
+      <c r="BC56" s="187"/>
+      <c r="BD56" s="187"/>
+      <c r="BE56" s="187"/>
+      <c r="BF56" s="187"/>
+      <c r="BG56" s="187"/>
+      <c r="BH56" s="187"/>
+      <c r="BI56" s="187"/>
       <c r="BJ56" s="25"/>
       <c r="BK56" s="25"/>
       <c r="BL56" s="25"/>
@@ -10023,78 +10023,78 @@
     </row>
     <row r="57" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
-      <c r="B57" s="209" t="s">
+      <c r="B57" s="202" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="210">
+      <c r="C57" s="203">
         <v>0</v>
       </c>
-      <c r="D57" s="211">
+      <c r="D57" s="204">
         <v>44852</v>
       </c>
-      <c r="E57" s="211">
+      <c r="E57" s="204">
         <v>44852</v>
       </c>
-      <c r="F57" s="212"/>
-      <c r="G57" s="212"/>
-      <c r="H57" s="213"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="213"/>
-      <c r="L57" s="213"/>
-      <c r="M57" s="213"/>
-      <c r="N57" s="213"/>
-      <c r="O57" s="213"/>
-      <c r="P57" s="213"/>
-      <c r="Q57" s="213"/>
-      <c r="R57" s="213"/>
-      <c r="S57" s="213"/>
-      <c r="T57" s="213"/>
-      <c r="U57" s="213"/>
-      <c r="V57" s="213"/>
-      <c r="W57" s="213"/>
-      <c r="X57" s="214"/>
-      <c r="Y57" s="213"/>
-      <c r="Z57" s="213"/>
-      <c r="AA57" s="213"/>
-      <c r="AB57" s="213"/>
-      <c r="AC57" s="213"/>
-      <c r="AD57" s="213"/>
-      <c r="AE57" s="213"/>
-      <c r="AF57" s="213"/>
-      <c r="AG57" s="213"/>
-      <c r="AH57" s="213"/>
-      <c r="AI57" s="213"/>
-      <c r="AJ57" s="213"/>
-      <c r="AK57" s="213"/>
-      <c r="AL57" s="213"/>
-      <c r="AM57" s="213"/>
-      <c r="AN57" s="213"/>
-      <c r="AO57" s="213"/>
-      <c r="AP57" s="213"/>
-      <c r="AQ57" s="213"/>
-      <c r="AR57" s="213"/>
-      <c r="AS57" s="213"/>
-      <c r="AT57" s="213"/>
-      <c r="AU57" s="213"/>
-      <c r="AV57" s="213"/>
-      <c r="AW57" s="213"/>
-      <c r="AX57" s="213"/>
-      <c r="AY57" s="213"/>
-      <c r="AZ57" s="213"/>
-      <c r="BA57" s="213"/>
-      <c r="BB57" s="213"/>
-      <c r="BC57" s="213"/>
-      <c r="BD57" s="213"/>
-      <c r="BE57" s="213"/>
-      <c r="BF57" s="213"/>
-      <c r="BG57" s="213"/>
-      <c r="BH57" s="213"/>
-      <c r="BI57" s="213"/>
-      <c r="BJ57" s="213"/>
-      <c r="BK57" s="213"/>
-      <c r="BL57" s="213"/>
-      <c r="BM57" s="213"/>
+      <c r="F57" s="205"/>
+      <c r="G57" s="205"/>
+      <c r="H57" s="206"/>
+      <c r="I57" s="206"/>
+      <c r="J57" s="206"/>
+      <c r="K57" s="206"/>
+      <c r="L57" s="206"/>
+      <c r="M57" s="206"/>
+      <c r="N57" s="206"/>
+      <c r="O57" s="206"/>
+      <c r="P57" s="206"/>
+      <c r="Q57" s="206"/>
+      <c r="R57" s="206"/>
+      <c r="S57" s="206"/>
+      <c r="T57" s="206"/>
+      <c r="U57" s="206"/>
+      <c r="V57" s="206"/>
+      <c r="W57" s="206"/>
+      <c r="X57" s="207"/>
+      <c r="Y57" s="206"/>
+      <c r="Z57" s="206"/>
+      <c r="AA57" s="206"/>
+      <c r="AB57" s="206"/>
+      <c r="AC57" s="206"/>
+      <c r="AD57" s="206"/>
+      <c r="AE57" s="206"/>
+      <c r="AF57" s="206"/>
+      <c r="AG57" s="206"/>
+      <c r="AH57" s="206"/>
+      <c r="AI57" s="206"/>
+      <c r="AJ57" s="206"/>
+      <c r="AK57" s="206"/>
+      <c r="AL57" s="206"/>
+      <c r="AM57" s="206"/>
+      <c r="AN57" s="206"/>
+      <c r="AO57" s="206"/>
+      <c r="AP57" s="206"/>
+      <c r="AQ57" s="206"/>
+      <c r="AR57" s="206"/>
+      <c r="AS57" s="206"/>
+      <c r="AT57" s="206"/>
+      <c r="AU57" s="206"/>
+      <c r="AV57" s="206"/>
+      <c r="AW57" s="206"/>
+      <c r="AX57" s="206"/>
+      <c r="AY57" s="206"/>
+      <c r="AZ57" s="206"/>
+      <c r="BA57" s="206"/>
+      <c r="BB57" s="206"/>
+      <c r="BC57" s="206"/>
+      <c r="BD57" s="206"/>
+      <c r="BE57" s="206"/>
+      <c r="BF57" s="206"/>
+      <c r="BG57" s="206"/>
+      <c r="BH57" s="206"/>
+      <c r="BI57" s="206"/>
+      <c r="BJ57" s="206"/>
+      <c r="BK57" s="206"/>
+      <c r="BL57" s="206"/>
+      <c r="BM57" s="206"/>
       <c r="BN57" s="25"/>
       <c r="BO57" s="25"/>
       <c r="BP57" s="25"/>
@@ -11752,7 +11752,7 @@
       <c r="D71" s="59">
         <v>44848</v>
       </c>
-      <c r="E71" s="215">
+      <c r="E71" s="208">
         <v>44850</v>
       </c>
       <c r="F71" s="55"/>
@@ -11987,86 +11987,86 @@
     </row>
     <row r="73" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
-      <c r="B73" s="216" t="s">
+      <c r="B73" s="209" t="s">
         <v>153</v>
       </c>
-      <c r="C73" s="217">
+      <c r="C73" s="210">
         <v>0</v>
       </c>
-      <c r="D73" s="218">
+      <c r="D73" s="211">
         <v>44856</v>
       </c>
-      <c r="E73" s="218">
+      <c r="E73" s="211">
         <v>44857</v>
       </c>
-      <c r="F73" s="219"/>
-      <c r="G73" s="219">
+      <c r="F73" s="212"/>
+      <c r="G73" s="212">
         <f t="shared" si="42"/>
         <v>2</v>
       </c>
-      <c r="H73" s="220"/>
-      <c r="I73" s="220"/>
-      <c r="J73" s="220"/>
-      <c r="K73" s="220"/>
-      <c r="L73" s="220"/>
-      <c r="M73" s="220"/>
-      <c r="N73" s="220"/>
-      <c r="O73" s="220"/>
-      <c r="P73" s="220"/>
-      <c r="Q73" s="220"/>
-      <c r="R73" s="220"/>
-      <c r="S73" s="220"/>
-      <c r="T73" s="220"/>
-      <c r="U73" s="220"/>
-      <c r="V73" s="220"/>
-      <c r="W73" s="220"/>
-      <c r="X73" s="220"/>
-      <c r="Y73" s="220"/>
-      <c r="Z73" s="220"/>
-      <c r="AA73" s="220"/>
-      <c r="AB73" s="220"/>
-      <c r="AC73" s="220"/>
-      <c r="AD73" s="220"/>
-      <c r="AE73" s="220"/>
-      <c r="AF73" s="220"/>
-      <c r="AG73" s="220"/>
-      <c r="AH73" s="220"/>
-      <c r="AI73" s="220"/>
-      <c r="AJ73" s="220"/>
-      <c r="AK73" s="220"/>
-      <c r="AL73" s="220"/>
-      <c r="AM73" s="220"/>
-      <c r="AN73" s="220"/>
-      <c r="AO73" s="220"/>
-      <c r="AP73" s="220"/>
-      <c r="AQ73" s="220"/>
-      <c r="AR73" s="220"/>
-      <c r="AS73" s="220"/>
-      <c r="AT73" s="220"/>
-      <c r="AU73" s="220"/>
-      <c r="AV73" s="220"/>
-      <c r="AW73" s="220"/>
-      <c r="AX73" s="220"/>
-      <c r="AY73" s="220"/>
-      <c r="AZ73" s="220"/>
-      <c r="BA73" s="220"/>
-      <c r="BB73" s="220"/>
-      <c r="BC73" s="220"/>
-      <c r="BD73" s="220"/>
-      <c r="BE73" s="220"/>
-      <c r="BF73" s="220"/>
-      <c r="BG73" s="220"/>
-      <c r="BH73" s="220"/>
-      <c r="BI73" s="220"/>
-      <c r="BJ73" s="220"/>
-      <c r="BK73" s="220"/>
-      <c r="BL73" s="220"/>
-      <c r="BM73" s="220"/>
-      <c r="BN73" s="220"/>
-      <c r="BO73" s="220"/>
-      <c r="BP73" s="220"/>
-      <c r="BQ73" s="220"/>
-      <c r="BR73" s="220"/>
+      <c r="H73" s="213"/>
+      <c r="I73" s="213"/>
+      <c r="J73" s="213"/>
+      <c r="K73" s="213"/>
+      <c r="L73" s="213"/>
+      <c r="M73" s="213"/>
+      <c r="N73" s="213"/>
+      <c r="O73" s="213"/>
+      <c r="P73" s="213"/>
+      <c r="Q73" s="213"/>
+      <c r="R73" s="213"/>
+      <c r="S73" s="213"/>
+      <c r="T73" s="213"/>
+      <c r="U73" s="213"/>
+      <c r="V73" s="213"/>
+      <c r="W73" s="213"/>
+      <c r="X73" s="213"/>
+      <c r="Y73" s="213"/>
+      <c r="Z73" s="213"/>
+      <c r="AA73" s="213"/>
+      <c r="AB73" s="213"/>
+      <c r="AC73" s="213"/>
+      <c r="AD73" s="213"/>
+      <c r="AE73" s="213"/>
+      <c r="AF73" s="213"/>
+      <c r="AG73" s="213"/>
+      <c r="AH73" s="213"/>
+      <c r="AI73" s="213"/>
+      <c r="AJ73" s="213"/>
+      <c r="AK73" s="213"/>
+      <c r="AL73" s="213"/>
+      <c r="AM73" s="213"/>
+      <c r="AN73" s="213"/>
+      <c r="AO73" s="213"/>
+      <c r="AP73" s="213"/>
+      <c r="AQ73" s="213"/>
+      <c r="AR73" s="213"/>
+      <c r="AS73" s="213"/>
+      <c r="AT73" s="213"/>
+      <c r="AU73" s="213"/>
+      <c r="AV73" s="213"/>
+      <c r="AW73" s="213"/>
+      <c r="AX73" s="213"/>
+      <c r="AY73" s="213"/>
+      <c r="AZ73" s="213"/>
+      <c r="BA73" s="213"/>
+      <c r="BB73" s="213"/>
+      <c r="BC73" s="213"/>
+      <c r="BD73" s="213"/>
+      <c r="BE73" s="213"/>
+      <c r="BF73" s="213"/>
+      <c r="BG73" s="213"/>
+      <c r="BH73" s="213"/>
+      <c r="BI73" s="213"/>
+      <c r="BJ73" s="213"/>
+      <c r="BK73" s="213"/>
+      <c r="BL73" s="213"/>
+      <c r="BM73" s="213"/>
+      <c r="BN73" s="213"/>
+      <c r="BO73" s="213"/>
+      <c r="BP73" s="213"/>
+      <c r="BQ73" s="213"/>
+      <c r="BR73" s="213"/>
       <c r="BS73" s="25"/>
       <c r="BT73" s="25"/>
       <c r="BU73" s="25"/>
@@ -12112,83 +12112,83 @@
     </row>
     <row r="74" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17"/>
-      <c r="B74" s="221" t="s">
+      <c r="B74" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="C74" s="222">
+      <c r="C74" s="215">
         <v>0</v>
       </c>
-      <c r="D74" s="223">
+      <c r="D74" s="216">
         <v>44856</v>
       </c>
-      <c r="E74" s="223">
+      <c r="E74" s="216">
         <v>44856</v>
       </c>
-      <c r="F74" s="224"/>
-      <c r="G74" s="224"/>
-      <c r="H74" s="225"/>
-      <c r="I74" s="225"/>
-      <c r="J74" s="225"/>
-      <c r="K74" s="225"/>
-      <c r="L74" s="225"/>
-      <c r="M74" s="225"/>
-      <c r="N74" s="225"/>
-      <c r="O74" s="225"/>
-      <c r="P74" s="225"/>
-      <c r="Q74" s="225"/>
-      <c r="R74" s="225"/>
-      <c r="S74" s="225"/>
-      <c r="T74" s="225"/>
-      <c r="U74" s="225"/>
-      <c r="V74" s="225"/>
-      <c r="W74" s="225"/>
-      <c r="X74" s="225"/>
-      <c r="Y74" s="225"/>
-      <c r="Z74" s="225"/>
-      <c r="AA74" s="225"/>
-      <c r="AB74" s="225"/>
-      <c r="AC74" s="225"/>
-      <c r="AD74" s="225"/>
-      <c r="AE74" s="225"/>
-      <c r="AF74" s="225"/>
-      <c r="AG74" s="225"/>
-      <c r="AH74" s="225"/>
-      <c r="AI74" s="225"/>
-      <c r="AJ74" s="225"/>
-      <c r="AK74" s="225"/>
-      <c r="AL74" s="225"/>
-      <c r="AM74" s="225"/>
-      <c r="AN74" s="225"/>
-      <c r="AO74" s="225"/>
-      <c r="AP74" s="225"/>
-      <c r="AQ74" s="225"/>
-      <c r="AR74" s="225"/>
-      <c r="AS74" s="225"/>
-      <c r="AT74" s="225"/>
-      <c r="AU74" s="225"/>
-      <c r="AV74" s="225"/>
-      <c r="AW74" s="225"/>
-      <c r="AX74" s="225"/>
-      <c r="AY74" s="225"/>
-      <c r="AZ74" s="225"/>
-      <c r="BA74" s="225"/>
-      <c r="BB74" s="225"/>
-      <c r="BC74" s="225"/>
-      <c r="BD74" s="225"/>
-      <c r="BE74" s="225"/>
-      <c r="BF74" s="225"/>
-      <c r="BG74" s="225"/>
-      <c r="BH74" s="225"/>
-      <c r="BI74" s="225"/>
-      <c r="BJ74" s="225"/>
-      <c r="BK74" s="225"/>
-      <c r="BL74" s="225"/>
-      <c r="BM74" s="225"/>
-      <c r="BN74" s="225"/>
-      <c r="BO74" s="225"/>
-      <c r="BP74" s="225"/>
-      <c r="BQ74" s="225"/>
-      <c r="BR74" s="225"/>
+      <c r="F74" s="217"/>
+      <c r="G74" s="217"/>
+      <c r="H74" s="218"/>
+      <c r="I74" s="218"/>
+      <c r="J74" s="218"/>
+      <c r="K74" s="218"/>
+      <c r="L74" s="218"/>
+      <c r="M74" s="218"/>
+      <c r="N74" s="218"/>
+      <c r="O74" s="218"/>
+      <c r="P74" s="218"/>
+      <c r="Q74" s="218"/>
+      <c r="R74" s="218"/>
+      <c r="S74" s="218"/>
+      <c r="T74" s="218"/>
+      <c r="U74" s="218"/>
+      <c r="V74" s="218"/>
+      <c r="W74" s="218"/>
+      <c r="X74" s="218"/>
+      <c r="Y74" s="218"/>
+      <c r="Z74" s="218"/>
+      <c r="AA74" s="218"/>
+      <c r="AB74" s="218"/>
+      <c r="AC74" s="218"/>
+      <c r="AD74" s="218"/>
+      <c r="AE74" s="218"/>
+      <c r="AF74" s="218"/>
+      <c r="AG74" s="218"/>
+      <c r="AH74" s="218"/>
+      <c r="AI74" s="218"/>
+      <c r="AJ74" s="218"/>
+      <c r="AK74" s="218"/>
+      <c r="AL74" s="218"/>
+      <c r="AM74" s="218"/>
+      <c r="AN74" s="218"/>
+      <c r="AO74" s="218"/>
+      <c r="AP74" s="218"/>
+      <c r="AQ74" s="218"/>
+      <c r="AR74" s="218"/>
+      <c r="AS74" s="218"/>
+      <c r="AT74" s="218"/>
+      <c r="AU74" s="218"/>
+      <c r="AV74" s="218"/>
+      <c r="AW74" s="218"/>
+      <c r="AX74" s="218"/>
+      <c r="AY74" s="218"/>
+      <c r="AZ74" s="218"/>
+      <c r="BA74" s="218"/>
+      <c r="BB74" s="218"/>
+      <c r="BC74" s="218"/>
+      <c r="BD74" s="218"/>
+      <c r="BE74" s="218"/>
+      <c r="BF74" s="218"/>
+      <c r="BG74" s="218"/>
+      <c r="BH74" s="218"/>
+      <c r="BI74" s="218"/>
+      <c r="BJ74" s="218"/>
+      <c r="BK74" s="218"/>
+      <c r="BL74" s="218"/>
+      <c r="BM74" s="218"/>
+      <c r="BN74" s="218"/>
+      <c r="BO74" s="218"/>
+      <c r="BP74" s="218"/>
+      <c r="BQ74" s="218"/>
+      <c r="BR74" s="218"/>
       <c r="BS74" s="25"/>
       <c r="BT74" s="25"/>
       <c r="BU74" s="25"/>
@@ -12234,83 +12234,83 @@
     </row>
     <row r="75" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="17"/>
-      <c r="B75" s="221" t="s">
+      <c r="B75" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="C75" s="222">
+      <c r="C75" s="215">
         <v>0</v>
       </c>
-      <c r="D75" s="223">
+      <c r="D75" s="216">
         <v>44856</v>
       </c>
-      <c r="E75" s="223">
+      <c r="E75" s="216">
         <v>44857</v>
       </c>
-      <c r="F75" s="224"/>
-      <c r="G75" s="224"/>
-      <c r="H75" s="225"/>
-      <c r="I75" s="225"/>
-      <c r="J75" s="225"/>
-      <c r="K75" s="225"/>
-      <c r="L75" s="225"/>
-      <c r="M75" s="225"/>
-      <c r="N75" s="225"/>
-      <c r="O75" s="225"/>
-      <c r="P75" s="225"/>
-      <c r="Q75" s="225"/>
-      <c r="R75" s="225"/>
-      <c r="S75" s="225"/>
-      <c r="T75" s="225"/>
-      <c r="U75" s="225"/>
-      <c r="V75" s="225"/>
-      <c r="W75" s="225"/>
-      <c r="X75" s="225"/>
-      <c r="Y75" s="225"/>
-      <c r="Z75" s="225"/>
-      <c r="AA75" s="225"/>
-      <c r="AB75" s="225"/>
-      <c r="AC75" s="225"/>
-      <c r="AD75" s="225"/>
-      <c r="AE75" s="225"/>
-      <c r="AF75" s="225"/>
-      <c r="AG75" s="225"/>
-      <c r="AH75" s="225"/>
-      <c r="AI75" s="225"/>
-      <c r="AJ75" s="225"/>
-      <c r="AK75" s="225"/>
-      <c r="AL75" s="225"/>
-      <c r="AM75" s="225"/>
-      <c r="AN75" s="225"/>
-      <c r="AO75" s="225"/>
-      <c r="AP75" s="225"/>
-      <c r="AQ75" s="225"/>
-      <c r="AR75" s="225"/>
-      <c r="AS75" s="225"/>
-      <c r="AT75" s="225"/>
-      <c r="AU75" s="225"/>
-      <c r="AV75" s="225"/>
-      <c r="AW75" s="225"/>
-      <c r="AX75" s="225"/>
-      <c r="AY75" s="225"/>
-      <c r="AZ75" s="225"/>
-      <c r="BA75" s="225"/>
-      <c r="BB75" s="225"/>
-      <c r="BC75" s="225"/>
-      <c r="BD75" s="225"/>
-      <c r="BE75" s="225"/>
-      <c r="BF75" s="225"/>
-      <c r="BG75" s="225"/>
-      <c r="BH75" s="225"/>
-      <c r="BI75" s="225"/>
-      <c r="BJ75" s="225"/>
-      <c r="BK75" s="225"/>
-      <c r="BL75" s="225"/>
-      <c r="BM75" s="225"/>
-      <c r="BN75" s="225"/>
-      <c r="BO75" s="225"/>
-      <c r="BP75" s="225"/>
-      <c r="BQ75" s="225"/>
-      <c r="BR75" s="225"/>
+      <c r="F75" s="217"/>
+      <c r="G75" s="217"/>
+      <c r="H75" s="218"/>
+      <c r="I75" s="218"/>
+      <c r="J75" s="218"/>
+      <c r="K75" s="218"/>
+      <c r="L75" s="218"/>
+      <c r="M75" s="218"/>
+      <c r="N75" s="218"/>
+      <c r="O75" s="218"/>
+      <c r="P75" s="218"/>
+      <c r="Q75" s="218"/>
+      <c r="R75" s="218"/>
+      <c r="S75" s="218"/>
+      <c r="T75" s="218"/>
+      <c r="U75" s="218"/>
+      <c r="V75" s="218"/>
+      <c r="W75" s="218"/>
+      <c r="X75" s="218"/>
+      <c r="Y75" s="218"/>
+      <c r="Z75" s="218"/>
+      <c r="AA75" s="218"/>
+      <c r="AB75" s="218"/>
+      <c r="AC75" s="218"/>
+      <c r="AD75" s="218"/>
+      <c r="AE75" s="218"/>
+      <c r="AF75" s="218"/>
+      <c r="AG75" s="218"/>
+      <c r="AH75" s="218"/>
+      <c r="AI75" s="218"/>
+      <c r="AJ75" s="218"/>
+      <c r="AK75" s="218"/>
+      <c r="AL75" s="218"/>
+      <c r="AM75" s="218"/>
+      <c r="AN75" s="218"/>
+      <c r="AO75" s="218"/>
+      <c r="AP75" s="218"/>
+      <c r="AQ75" s="218"/>
+      <c r="AR75" s="218"/>
+      <c r="AS75" s="218"/>
+      <c r="AT75" s="218"/>
+      <c r="AU75" s="218"/>
+      <c r="AV75" s="218"/>
+      <c r="AW75" s="218"/>
+      <c r="AX75" s="218"/>
+      <c r="AY75" s="218"/>
+      <c r="AZ75" s="218"/>
+      <c r="BA75" s="218"/>
+      <c r="BB75" s="218"/>
+      <c r="BC75" s="218"/>
+      <c r="BD75" s="218"/>
+      <c r="BE75" s="218"/>
+      <c r="BF75" s="218"/>
+      <c r="BG75" s="218"/>
+      <c r="BH75" s="218"/>
+      <c r="BI75" s="218"/>
+      <c r="BJ75" s="218"/>
+      <c r="BK75" s="218"/>
+      <c r="BL75" s="218"/>
+      <c r="BM75" s="218"/>
+      <c r="BN75" s="218"/>
+      <c r="BO75" s="218"/>
+      <c r="BP75" s="218"/>
+      <c r="BQ75" s="218"/>
+      <c r="BR75" s="218"/>
       <c r="BS75" s="25"/>
       <c r="BT75" s="25"/>
       <c r="BU75" s="25"/>
@@ -12356,83 +12356,83 @@
     </row>
     <row r="76" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
-      <c r="B76" s="221" t="s">
+      <c r="B76" s="214" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="222">
+      <c r="C76" s="215">
         <v>0</v>
       </c>
-      <c r="D76" s="223">
+      <c r="D76" s="216">
         <v>44857</v>
       </c>
-      <c r="E76" s="223">
+      <c r="E76" s="216">
         <v>44857</v>
       </c>
-      <c r="F76" s="224"/>
-      <c r="G76" s="224"/>
-      <c r="H76" s="225"/>
-      <c r="I76" s="225"/>
-      <c r="J76" s="225"/>
-      <c r="K76" s="225"/>
-      <c r="L76" s="225"/>
-      <c r="M76" s="225"/>
-      <c r="N76" s="225"/>
-      <c r="O76" s="225"/>
-      <c r="P76" s="225"/>
-      <c r="Q76" s="225"/>
-      <c r="R76" s="225"/>
-      <c r="S76" s="225"/>
-      <c r="T76" s="225"/>
-      <c r="U76" s="225"/>
-      <c r="V76" s="225"/>
-      <c r="W76" s="225"/>
-      <c r="X76" s="225"/>
-      <c r="Y76" s="225"/>
-      <c r="Z76" s="225"/>
-      <c r="AA76" s="225"/>
-      <c r="AB76" s="225"/>
-      <c r="AC76" s="225"/>
-      <c r="AD76" s="225"/>
-      <c r="AE76" s="225"/>
-      <c r="AF76" s="225"/>
-      <c r="AG76" s="225"/>
-      <c r="AH76" s="225"/>
-      <c r="AI76" s="225"/>
-      <c r="AJ76" s="225"/>
-      <c r="AK76" s="225"/>
-      <c r="AL76" s="225"/>
-      <c r="AM76" s="225"/>
-      <c r="AN76" s="225"/>
-      <c r="AO76" s="225"/>
-      <c r="AP76" s="225"/>
-      <c r="AQ76" s="225"/>
-      <c r="AR76" s="225"/>
-      <c r="AS76" s="225"/>
-      <c r="AT76" s="225"/>
-      <c r="AU76" s="225"/>
-      <c r="AV76" s="225"/>
-      <c r="AW76" s="225"/>
-      <c r="AX76" s="225"/>
-      <c r="AY76" s="225"/>
-      <c r="AZ76" s="225"/>
-      <c r="BA76" s="225"/>
-      <c r="BB76" s="225"/>
-      <c r="BC76" s="225"/>
-      <c r="BD76" s="225"/>
-      <c r="BE76" s="225"/>
-      <c r="BF76" s="225"/>
-      <c r="BG76" s="225"/>
-      <c r="BH76" s="225"/>
-      <c r="BI76" s="225"/>
-      <c r="BJ76" s="225"/>
-      <c r="BK76" s="225"/>
-      <c r="BL76" s="225"/>
-      <c r="BM76" s="225"/>
-      <c r="BN76" s="225"/>
-      <c r="BO76" s="225"/>
-      <c r="BP76" s="225"/>
-      <c r="BQ76" s="225"/>
-      <c r="BR76" s="225"/>
+      <c r="F76" s="217"/>
+      <c r="G76" s="217"/>
+      <c r="H76" s="218"/>
+      <c r="I76" s="218"/>
+      <c r="J76" s="218"/>
+      <c r="K76" s="218"/>
+      <c r="L76" s="218"/>
+      <c r="M76" s="218"/>
+      <c r="N76" s="218"/>
+      <c r="O76" s="218"/>
+      <c r="P76" s="218"/>
+      <c r="Q76" s="218"/>
+      <c r="R76" s="218"/>
+      <c r="S76" s="218"/>
+      <c r="T76" s="218"/>
+      <c r="U76" s="218"/>
+      <c r="V76" s="218"/>
+      <c r="W76" s="218"/>
+      <c r="X76" s="218"/>
+      <c r="Y76" s="218"/>
+      <c r="Z76" s="218"/>
+      <c r="AA76" s="218"/>
+      <c r="AB76" s="218"/>
+      <c r="AC76" s="218"/>
+      <c r="AD76" s="218"/>
+      <c r="AE76" s="218"/>
+      <c r="AF76" s="218"/>
+      <c r="AG76" s="218"/>
+      <c r="AH76" s="218"/>
+      <c r="AI76" s="218"/>
+      <c r="AJ76" s="218"/>
+      <c r="AK76" s="218"/>
+      <c r="AL76" s="218"/>
+      <c r="AM76" s="218"/>
+      <c r="AN76" s="218"/>
+      <c r="AO76" s="218"/>
+      <c r="AP76" s="218"/>
+      <c r="AQ76" s="218"/>
+      <c r="AR76" s="218"/>
+      <c r="AS76" s="218"/>
+      <c r="AT76" s="218"/>
+      <c r="AU76" s="218"/>
+      <c r="AV76" s="218"/>
+      <c r="AW76" s="218"/>
+      <c r="AX76" s="218"/>
+      <c r="AY76" s="218"/>
+      <c r="AZ76" s="218"/>
+      <c r="BA76" s="218"/>
+      <c r="BB76" s="218"/>
+      <c r="BC76" s="218"/>
+      <c r="BD76" s="218"/>
+      <c r="BE76" s="218"/>
+      <c r="BF76" s="218"/>
+      <c r="BG76" s="218"/>
+      <c r="BH76" s="218"/>
+      <c r="BI76" s="218"/>
+      <c r="BJ76" s="218"/>
+      <c r="BK76" s="218"/>
+      <c r="BL76" s="218"/>
+      <c r="BM76" s="218"/>
+      <c r="BN76" s="218"/>
+      <c r="BO76" s="218"/>
+      <c r="BP76" s="218"/>
+      <c r="BQ76" s="218"/>
+      <c r="BR76" s="218"/>
       <c r="BS76" s="25"/>
       <c r="BT76" s="25"/>
       <c r="BU76" s="25"/>
@@ -12478,16 +12478,16 @@
     </row>
     <row r="77" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
-      <c r="B77" s="235" t="s">
+      <c r="B77" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="C77" s="236">
+      <c r="C77" s="229">
         <v>0</v>
       </c>
-      <c r="D77" s="237">
+      <c r="D77" s="230">
         <v>44851</v>
       </c>
-      <c r="E77" s="237">
+      <c r="E77" s="230">
         <v>44857</v>
       </c>
       <c r="F77" s="81"/>
@@ -15040,87 +15040,87 @@
     </row>
     <row r="98" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
-      <c r="B98" s="232" t="s">
+      <c r="B98" s="225" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="231">
         <v>0</v>
       </c>
-      <c r="D98" s="239">
+      <c r="D98" s="232">
         <v>44861</v>
       </c>
-      <c r="E98" s="239">
+      <c r="E98" s="232">
         <v>44861</v>
       </c>
-      <c r="F98" s="226"/>
-      <c r="G98" s="226"/>
-      <c r="H98" s="227"/>
-      <c r="I98" s="227"/>
-      <c r="J98" s="227"/>
-      <c r="K98" s="227"/>
-      <c r="L98" s="227"/>
-      <c r="M98" s="227"/>
-      <c r="N98" s="227"/>
-      <c r="O98" s="227"/>
-      <c r="P98" s="227"/>
-      <c r="Q98" s="227"/>
-      <c r="R98" s="227"/>
-      <c r="S98" s="227"/>
-      <c r="T98" s="227"/>
-      <c r="U98" s="227"/>
-      <c r="V98" s="227"/>
-      <c r="W98" s="227"/>
-      <c r="X98" s="227"/>
-      <c r="Y98" s="227"/>
-      <c r="Z98" s="227"/>
-      <c r="AA98" s="227"/>
-      <c r="AB98" s="227"/>
-      <c r="AC98" s="227"/>
-      <c r="AD98" s="227"/>
-      <c r="AE98" s="227"/>
-      <c r="AF98" s="227"/>
-      <c r="AG98" s="227"/>
-      <c r="AH98" s="227"/>
-      <c r="AI98" s="227"/>
-      <c r="AJ98" s="227"/>
-      <c r="AK98" s="227"/>
-      <c r="AL98" s="227"/>
-      <c r="AM98" s="227"/>
-      <c r="AN98" s="227"/>
-      <c r="AO98" s="227"/>
-      <c r="AP98" s="227"/>
-      <c r="AQ98" s="227"/>
-      <c r="AR98" s="227"/>
-      <c r="AS98" s="227"/>
-      <c r="AT98" s="227"/>
-      <c r="AU98" s="227"/>
-      <c r="AV98" s="227"/>
-      <c r="AW98" s="227"/>
-      <c r="AX98" s="227"/>
-      <c r="AY98" s="227"/>
-      <c r="AZ98" s="227"/>
-      <c r="BA98" s="227"/>
-      <c r="BB98" s="227"/>
-      <c r="BC98" s="227"/>
-      <c r="BD98" s="227"/>
-      <c r="BE98" s="227"/>
-      <c r="BF98" s="227"/>
-      <c r="BG98" s="227"/>
-      <c r="BH98" s="227"/>
-      <c r="BI98" s="227"/>
-      <c r="BJ98" s="227"/>
-      <c r="BK98" s="227"/>
-      <c r="BL98" s="227"/>
-      <c r="BM98" s="227"/>
-      <c r="BN98" s="227"/>
-      <c r="BO98" s="227"/>
-      <c r="BP98" s="227"/>
-      <c r="BQ98" s="227"/>
-      <c r="BR98" s="227"/>
-      <c r="BS98" s="227"/>
-      <c r="BT98" s="227"/>
-      <c r="BU98" s="227"/>
-      <c r="BV98" s="227"/>
+      <c r="F98" s="219"/>
+      <c r="G98" s="219"/>
+      <c r="H98" s="220"/>
+      <c r="I98" s="220"/>
+      <c r="J98" s="220"/>
+      <c r="K98" s="220"/>
+      <c r="L98" s="220"/>
+      <c r="M98" s="220"/>
+      <c r="N98" s="220"/>
+      <c r="O98" s="220"/>
+      <c r="P98" s="220"/>
+      <c r="Q98" s="220"/>
+      <c r="R98" s="220"/>
+      <c r="S98" s="220"/>
+      <c r="T98" s="220"/>
+      <c r="U98" s="220"/>
+      <c r="V98" s="220"/>
+      <c r="W98" s="220"/>
+      <c r="X98" s="220"/>
+      <c r="Y98" s="220"/>
+      <c r="Z98" s="220"/>
+      <c r="AA98" s="220"/>
+      <c r="AB98" s="220"/>
+      <c r="AC98" s="220"/>
+      <c r="AD98" s="220"/>
+      <c r="AE98" s="220"/>
+      <c r="AF98" s="220"/>
+      <c r="AG98" s="220"/>
+      <c r="AH98" s="220"/>
+      <c r="AI98" s="220"/>
+      <c r="AJ98" s="220"/>
+      <c r="AK98" s="220"/>
+      <c r="AL98" s="220"/>
+      <c r="AM98" s="220"/>
+      <c r="AN98" s="220"/>
+      <c r="AO98" s="220"/>
+      <c r="AP98" s="220"/>
+      <c r="AQ98" s="220"/>
+      <c r="AR98" s="220"/>
+      <c r="AS98" s="220"/>
+      <c r="AT98" s="220"/>
+      <c r="AU98" s="220"/>
+      <c r="AV98" s="220"/>
+      <c r="AW98" s="220"/>
+      <c r="AX98" s="220"/>
+      <c r="AY98" s="220"/>
+      <c r="AZ98" s="220"/>
+      <c r="BA98" s="220"/>
+      <c r="BB98" s="220"/>
+      <c r="BC98" s="220"/>
+      <c r="BD98" s="220"/>
+      <c r="BE98" s="220"/>
+      <c r="BF98" s="220"/>
+      <c r="BG98" s="220"/>
+      <c r="BH98" s="220"/>
+      <c r="BI98" s="220"/>
+      <c r="BJ98" s="220"/>
+      <c r="BK98" s="220"/>
+      <c r="BL98" s="220"/>
+      <c r="BM98" s="220"/>
+      <c r="BN98" s="220"/>
+      <c r="BO98" s="220"/>
+      <c r="BP98" s="220"/>
+      <c r="BQ98" s="220"/>
+      <c r="BR98" s="220"/>
+      <c r="BS98" s="220"/>
+      <c r="BT98" s="220"/>
+      <c r="BU98" s="220"/>
+      <c r="BV98" s="220"/>
       <c r="BW98" s="25"/>
       <c r="BX98" s="25"/>
       <c r="BY98" s="25"/>
@@ -15162,91 +15162,91 @@
     </row>
     <row r="99" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
-      <c r="B99" s="233" t="s">
+      <c r="B99" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="240">
+      <c r="C99" s="233">
         <v>0</v>
       </c>
-      <c r="D99" s="241">
+      <c r="D99" s="234">
         <v>44865</v>
       </c>
-      <c r="E99" s="241">
+      <c r="E99" s="234">
         <v>44865</v>
       </c>
-      <c r="F99" s="228"/>
-      <c r="G99" s="228"/>
-      <c r="H99" s="229"/>
-      <c r="I99" s="229"/>
-      <c r="J99" s="229"/>
-      <c r="K99" s="229"/>
-      <c r="L99" s="229"/>
-      <c r="M99" s="229"/>
-      <c r="N99" s="229"/>
-      <c r="O99" s="229"/>
-      <c r="P99" s="229"/>
-      <c r="Q99" s="229"/>
-      <c r="R99" s="229"/>
-      <c r="S99" s="229"/>
-      <c r="T99" s="229"/>
-      <c r="U99" s="229"/>
-      <c r="V99" s="229"/>
-      <c r="W99" s="229"/>
-      <c r="X99" s="229"/>
-      <c r="Y99" s="229"/>
-      <c r="Z99" s="229"/>
-      <c r="AA99" s="229"/>
-      <c r="AB99" s="229"/>
-      <c r="AC99" s="229"/>
-      <c r="AD99" s="229"/>
-      <c r="AE99" s="229"/>
-      <c r="AF99" s="229"/>
-      <c r="AG99" s="229"/>
-      <c r="AH99" s="229"/>
-      <c r="AI99" s="229"/>
-      <c r="AJ99" s="229"/>
-      <c r="AK99" s="229"/>
-      <c r="AL99" s="229"/>
-      <c r="AM99" s="229"/>
-      <c r="AN99" s="229"/>
-      <c r="AO99" s="229"/>
-      <c r="AP99" s="229"/>
-      <c r="AQ99" s="229"/>
-      <c r="AR99" s="229"/>
-      <c r="AS99" s="229"/>
-      <c r="AT99" s="229"/>
-      <c r="AU99" s="229"/>
-      <c r="AV99" s="229"/>
-      <c r="AW99" s="229"/>
-      <c r="AX99" s="229"/>
-      <c r="AY99" s="229"/>
-      <c r="AZ99" s="229"/>
-      <c r="BA99" s="229"/>
-      <c r="BB99" s="229"/>
-      <c r="BC99" s="229"/>
-      <c r="BD99" s="229"/>
-      <c r="BE99" s="229"/>
-      <c r="BF99" s="229"/>
-      <c r="BG99" s="229"/>
-      <c r="BH99" s="229"/>
-      <c r="BI99" s="229"/>
-      <c r="BJ99" s="229"/>
-      <c r="BK99" s="229"/>
-      <c r="BL99" s="229"/>
-      <c r="BM99" s="229"/>
-      <c r="BN99" s="229"/>
-      <c r="BO99" s="229"/>
-      <c r="BP99" s="229"/>
-      <c r="BQ99" s="229"/>
-      <c r="BR99" s="229"/>
-      <c r="BS99" s="229"/>
-      <c r="BT99" s="229"/>
-      <c r="BU99" s="229"/>
-      <c r="BV99" s="229"/>
-      <c r="BW99" s="229"/>
-      <c r="BX99" s="229"/>
-      <c r="BY99" s="229"/>
-      <c r="BZ99" s="229"/>
+      <c r="F99" s="221"/>
+      <c r="G99" s="221"/>
+      <c r="H99" s="222"/>
+      <c r="I99" s="222"/>
+      <c r="J99" s="222"/>
+      <c r="K99" s="222"/>
+      <c r="L99" s="222"/>
+      <c r="M99" s="222"/>
+      <c r="N99" s="222"/>
+      <c r="O99" s="222"/>
+      <c r="P99" s="222"/>
+      <c r="Q99" s="222"/>
+      <c r="R99" s="222"/>
+      <c r="S99" s="222"/>
+      <c r="T99" s="222"/>
+      <c r="U99" s="222"/>
+      <c r="V99" s="222"/>
+      <c r="W99" s="222"/>
+      <c r="X99" s="222"/>
+      <c r="Y99" s="222"/>
+      <c r="Z99" s="222"/>
+      <c r="AA99" s="222"/>
+      <c r="AB99" s="222"/>
+      <c r="AC99" s="222"/>
+      <c r="AD99" s="222"/>
+      <c r="AE99" s="222"/>
+      <c r="AF99" s="222"/>
+      <c r="AG99" s="222"/>
+      <c r="AH99" s="222"/>
+      <c r="AI99" s="222"/>
+      <c r="AJ99" s="222"/>
+      <c r="AK99" s="222"/>
+      <c r="AL99" s="222"/>
+      <c r="AM99" s="222"/>
+      <c r="AN99" s="222"/>
+      <c r="AO99" s="222"/>
+      <c r="AP99" s="222"/>
+      <c r="AQ99" s="222"/>
+      <c r="AR99" s="222"/>
+      <c r="AS99" s="222"/>
+      <c r="AT99" s="222"/>
+      <c r="AU99" s="222"/>
+      <c r="AV99" s="222"/>
+      <c r="AW99" s="222"/>
+      <c r="AX99" s="222"/>
+      <c r="AY99" s="222"/>
+      <c r="AZ99" s="222"/>
+      <c r="BA99" s="222"/>
+      <c r="BB99" s="222"/>
+      <c r="BC99" s="222"/>
+      <c r="BD99" s="222"/>
+      <c r="BE99" s="222"/>
+      <c r="BF99" s="222"/>
+      <c r="BG99" s="222"/>
+      <c r="BH99" s="222"/>
+      <c r="BI99" s="222"/>
+      <c r="BJ99" s="222"/>
+      <c r="BK99" s="222"/>
+      <c r="BL99" s="222"/>
+      <c r="BM99" s="222"/>
+      <c r="BN99" s="222"/>
+      <c r="BO99" s="222"/>
+      <c r="BP99" s="222"/>
+      <c r="BQ99" s="222"/>
+      <c r="BR99" s="222"/>
+      <c r="BS99" s="222"/>
+      <c r="BT99" s="222"/>
+      <c r="BU99" s="222"/>
+      <c r="BV99" s="222"/>
+      <c r="BW99" s="222"/>
+      <c r="BX99" s="222"/>
+      <c r="BY99" s="222"/>
+      <c r="BZ99" s="222"/>
       <c r="CA99" s="25"/>
       <c r="CB99" s="25"/>
       <c r="CC99" s="25"/>
@@ -15284,96 +15284,96 @@
     </row>
     <row r="100" spans="1:112" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="17"/>
-      <c r="B100" s="234" t="s">
+      <c r="B100" s="227" t="s">
         <v>159</v>
       </c>
-      <c r="C100" s="242">
+      <c r="C100" s="235">
         <v>0</v>
       </c>
-      <c r="D100" s="243">
+      <c r="D100" s="236">
         <v>44870</v>
       </c>
-      <c r="E100" s="243">
+      <c r="E100" s="236">
         <v>44870</v>
       </c>
-      <c r="F100" s="230"/>
-      <c r="G100" s="230"/>
-      <c r="H100" s="231"/>
-      <c r="I100" s="231"/>
-      <c r="J100" s="231"/>
-      <c r="K100" s="231"/>
-      <c r="L100" s="231"/>
-      <c r="M100" s="231"/>
-      <c r="N100" s="231"/>
-      <c r="O100" s="231"/>
-      <c r="P100" s="231"/>
-      <c r="Q100" s="231"/>
-      <c r="R100" s="231"/>
-      <c r="S100" s="231"/>
-      <c r="T100" s="231"/>
-      <c r="U100" s="231"/>
-      <c r="V100" s="231"/>
-      <c r="W100" s="231"/>
-      <c r="X100" s="231"/>
-      <c r="Y100" s="231"/>
-      <c r="Z100" s="231"/>
-      <c r="AA100" s="231"/>
-      <c r="AB100" s="231"/>
-      <c r="AC100" s="231"/>
-      <c r="AD100" s="231"/>
-      <c r="AE100" s="231"/>
-      <c r="AF100" s="231"/>
-      <c r="AG100" s="231"/>
-      <c r="AH100" s="231"/>
-      <c r="AI100" s="231"/>
-      <c r="AJ100" s="231"/>
-      <c r="AK100" s="231"/>
-      <c r="AL100" s="231"/>
-      <c r="AM100" s="231"/>
-      <c r="AN100" s="231"/>
-      <c r="AO100" s="231"/>
-      <c r="AP100" s="231"/>
-      <c r="AQ100" s="231"/>
-      <c r="AR100" s="231"/>
-      <c r="AS100" s="231"/>
-      <c r="AT100" s="231"/>
-      <c r="AU100" s="231"/>
-      <c r="AV100" s="231"/>
-      <c r="AW100" s="231"/>
-      <c r="AX100" s="231"/>
-      <c r="AY100" s="231"/>
-      <c r="AZ100" s="231"/>
-      <c r="BA100" s="231"/>
-      <c r="BB100" s="231"/>
-      <c r="BC100" s="231"/>
-      <c r="BD100" s="231"/>
-      <c r="BE100" s="231"/>
-      <c r="BF100" s="231"/>
-      <c r="BG100" s="231"/>
-      <c r="BH100" s="231"/>
-      <c r="BI100" s="231"/>
-      <c r="BJ100" s="231"/>
-      <c r="BK100" s="231"/>
-      <c r="BL100" s="231"/>
-      <c r="BM100" s="231"/>
-      <c r="BN100" s="231"/>
-      <c r="BO100" s="231"/>
-      <c r="BP100" s="231"/>
-      <c r="BQ100" s="231"/>
-      <c r="BR100" s="231"/>
-      <c r="BS100" s="231"/>
-      <c r="BT100" s="231"/>
-      <c r="BU100" s="231"/>
-      <c r="BV100" s="231"/>
-      <c r="BW100" s="231"/>
-      <c r="BX100" s="231"/>
-      <c r="BY100" s="231"/>
-      <c r="BZ100" s="231"/>
-      <c r="CA100" s="231"/>
-      <c r="CB100" s="231"/>
-      <c r="CC100" s="231"/>
-      <c r="CD100" s="231"/>
-      <c r="CE100" s="231"/>
+      <c r="F100" s="223"/>
+      <c r="G100" s="223"/>
+      <c r="H100" s="224"/>
+      <c r="I100" s="224"/>
+      <c r="J100" s="224"/>
+      <c r="K100" s="224"/>
+      <c r="L100" s="224"/>
+      <c r="M100" s="224"/>
+      <c r="N100" s="224"/>
+      <c r="O100" s="224"/>
+      <c r="P100" s="224"/>
+      <c r="Q100" s="224"/>
+      <c r="R100" s="224"/>
+      <c r="S100" s="224"/>
+      <c r="T100" s="224"/>
+      <c r="U100" s="224"/>
+      <c r="V100" s="224"/>
+      <c r="W100" s="224"/>
+      <c r="X100" s="224"/>
+      <c r="Y100" s="224"/>
+      <c r="Z100" s="224"/>
+      <c r="AA100" s="224"/>
+      <c r="AB100" s="224"/>
+      <c r="AC100" s="224"/>
+      <c r="AD100" s="224"/>
+      <c r="AE100" s="224"/>
+      <c r="AF100" s="224"/>
+      <c r="AG100" s="224"/>
+      <c r="AH100" s="224"/>
+      <c r="AI100" s="224"/>
+      <c r="AJ100" s="224"/>
+      <c r="AK100" s="224"/>
+      <c r="AL100" s="224"/>
+      <c r="AM100" s="224"/>
+      <c r="AN100" s="224"/>
+      <c r="AO100" s="224"/>
+      <c r="AP100" s="224"/>
+      <c r="AQ100" s="224"/>
+      <c r="AR100" s="224"/>
+      <c r="AS100" s="224"/>
+      <c r="AT100" s="224"/>
+      <c r="AU100" s="224"/>
+      <c r="AV100" s="224"/>
+      <c r="AW100" s="224"/>
+      <c r="AX100" s="224"/>
+      <c r="AY100" s="224"/>
+      <c r="AZ100" s="224"/>
+      <c r="BA100" s="224"/>
+      <c r="BB100" s="224"/>
+      <c r="BC100" s="224"/>
+      <c r="BD100" s="224"/>
+      <c r="BE100" s="224"/>
+      <c r="BF100" s="224"/>
+      <c r="BG100" s="224"/>
+      <c r="BH100" s="224"/>
+      <c r="BI100" s="224"/>
+      <c r="BJ100" s="224"/>
+      <c r="BK100" s="224"/>
+      <c r="BL100" s="224"/>
+      <c r="BM100" s="224"/>
+      <c r="BN100" s="224"/>
+      <c r="BO100" s="224"/>
+      <c r="BP100" s="224"/>
+      <c r="BQ100" s="224"/>
+      <c r="BR100" s="224"/>
+      <c r="BS100" s="224"/>
+      <c r="BT100" s="224"/>
+      <c r="BU100" s="224"/>
+      <c r="BV100" s="224"/>
+      <c r="BW100" s="224"/>
+      <c r="BX100" s="224"/>
+      <c r="BY100" s="224"/>
+      <c r="BZ100" s="224"/>
+      <c r="CA100" s="224"/>
+      <c r="CB100" s="224"/>
+      <c r="CC100" s="224"/>
+      <c r="CD100" s="224"/>
+      <c r="CE100" s="224"/>
       <c r="CF100" s="25"/>
       <c r="CG100" s="25"/>
       <c r="CH100" s="25"/>
@@ -20561,17 +20561,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I1:Z1"/>
-    <mergeCell ref="AJ4:AP4"/>
-    <mergeCell ref="AQ4:AW4"/>
-    <mergeCell ref="AX4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:U4"/>
-    <mergeCell ref="V4:AB4"/>
-    <mergeCell ref="AC4:AI4"/>
-    <mergeCell ref="D3:E3"/>
     <mergeCell ref="CU4:DA4"/>
     <mergeCell ref="DB4:DH4"/>
     <mergeCell ref="BL4:BR4"/>
@@ -20579,6 +20568,17 @@
     <mergeCell ref="BZ4:CF4"/>
     <mergeCell ref="CG4:CM4"/>
     <mergeCell ref="CN4:CT4"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:U4"/>
+    <mergeCell ref="V4:AB4"/>
+    <mergeCell ref="AC4:AI4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="I1:Z1"/>
+    <mergeCell ref="AJ4:AP4"/>
+    <mergeCell ref="AQ4:AW4"/>
+    <mergeCell ref="AX4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
   </mergeCells>
   <conditionalFormatting sqref="C7:C52 C57:C142">
     <cfRule type="dataBar" priority="40">
